--- a/TiposFondos.xlsx
+++ b/TiposFondos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bancolombia-my.sharepoint.com/personal/juliavar_bancolombia_com_co/Documents/Workspace/PruebaStreamLit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="8_{8CBD80A7-9B07-44C5-8CE3-AE13A91E9491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12E891B4-1250-4D70-8122-7209B8D2A584}"/>
+  <xr:revisionPtr revIDLastSave="1847" documentId="8_{8CBD80A7-9B07-44C5-8CE3-AE13A91E9491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C37F4790-AF82-4A03-B04B-6E56C119EA7E}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{736785FE-60EA-4529-8E45-DA0A45830E98}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3534" uniqueCount="873">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3534" uniqueCount="872">
   <si>
     <t>concatenar</t>
   </si>
@@ -810,9 +810,6 @@
     <t>FIDUCIARIA COLMENA S.A.</t>
   </si>
   <si>
-    <t>UNIVERSITAS  FONDO DE INVERSION  COLECTIVA ABIERTO CON  PACTO DE  PERMANENCIA</t>
-  </si>
-  <si>
     <t>FIDUCIARIA COLMENA S.A.RENDIR FONDO DE INVERSION COLECTIVA ABIERTO80</t>
   </si>
   <si>
@@ -1593,9 +1590,6 @@
     <t>ALIANZA S.A. FONDO CASH CONSERVADOR ALIANZA 1525519</t>
   </si>
   <si>
-    <t xml:space="preserve"> FONDO CASH CONSERVADOR ALIANZA 1525</t>
-  </si>
-  <si>
     <t>ALIANZA S.A. FONDO CASH CONSERVADOR ALIANZA 1525518</t>
   </si>
   <si>
@@ -1926,18 +1920,12 @@
     <t>ALIANZA S.A. FONDO DE INVERSION COLECTIVA CERRADO SENTENCIAS NACION ALIANZA52</t>
   </si>
   <si>
-    <t xml:space="preserve"> FONDO DE INVERSION COLECTIVA CERRADO SENTENCIAS NACION ALIANZA</t>
-  </si>
-  <si>
     <t>ALIANZA S.A. FONDO DE INVERSION COLECTIVA CERRADO SENTENCIAS NACION ALIANZA54</t>
   </si>
   <si>
     <t>ALIANZA S.A. FONDO CERRADO SENTENCIAS NACION II ALIANZA54</t>
   </si>
   <si>
-    <t xml:space="preserve"> FONDO CERRADO SENTENCIAS NACION II ALIANZA</t>
-  </si>
-  <si>
     <t>ALIANZA S.A.FONDO ABIERTO ALIANZA CON PACTO DE PERMANENCIA MINIMA DIVERSIFICACION INMOBILIARIA COLOMBIA57</t>
   </si>
   <si>
@@ -1953,9 +1941,6 @@
     <t>ALIANZA S.A. FONDO DE INVERSION COLECTIVA ABIERTO CON PACTO DE PERMANENCIA RENOVABLE BALANCEADO MODERADO ALIANZ53</t>
   </si>
   <si>
-    <t xml:space="preserve"> FONDO DE INVERSION COLECTIVA ABIERTO CON PACTO DE PERMANENCIA RENOVABLE BALANCEADO MODERADO ALIANZ</t>
-  </si>
-  <si>
     <t>ALIANZA S.A. FONDO DE INVERSION COLECTIVA ABIERTO CON PACTO DE PERMANENCIA RENOVABLE BALANCEADO MODERADO ALIANZ59</t>
   </si>
   <si>
@@ -2070,9 +2055,6 @@
     <t>BBVA FIDUCIARIA S.A.FONDO DE INVERSION COLECTIVA ABIERTO CON PACTO DE PERMANENCIA Y  PARTICIPACIONES DIFERENCIALES BBVA81</t>
   </si>
   <si>
-    <t>FONDO DE INVERSION COLECTIVA ABIERTO CON PACTO DE PERMANENCIA Y  PARTICIPACIONES DIFERENCIALES BBVA</t>
-  </si>
-  <si>
     <t>BTG PACTUAL S.A.FONDO DE INVERSION COLECTIVA DEL MERCADO MONETARIO BTG PACTUAL LIQUIDEZ41</t>
   </si>
   <si>
@@ -2100,9 +2082,6 @@
     <t>Fiduciaria Bancolombia S.A. FONDO DE INVERSION COLECTIVA ABIERTO RENTA BALANCEADO80</t>
   </si>
   <si>
-    <t xml:space="preserve"> FONDO DE INVERSION COLECTIVA ABIERTO RENTA BALANCEADO</t>
-  </si>
-  <si>
     <t>FIDUAGRARIA S.A.FONDO DE INVERSION COLECTIVA ABIERTO CON PACTO DE PERMANENCIA RENTAPAIS80</t>
   </si>
   <si>
@@ -2653,6 +2632,24 @@
   </si>
   <si>
     <t>FONDO CASH CONSERVADOR ALIANZA 1525</t>
+  </si>
+  <si>
+    <t>FONDO DE INVERSION COLECTIVA CERRADO SENTENCIAS NACION ALIANZA</t>
+  </si>
+  <si>
+    <t>FONDO CERRADO SENTENCIAS NACION II ALIANZA</t>
+  </si>
+  <si>
+    <t>FONDO DE INVERSION COLECTIVA ABIERTO CON PACTO DE PERMANENCIA RENOVABLE BALANCEADO MODERADO ALIANZ</t>
+  </si>
+  <si>
+    <t>FONDO DE INVERSION COLECTIVA ABIERTO CON PACTO DE PERMANENCIA Y PARTICIPACIONES DIFERENCIALES BBVA</t>
+  </si>
+  <si>
+    <t>UNIVERSITAS FONDO DE INVERSION COLECTIVA ABIERTO CON PACTO DE PERMANENCIA</t>
+  </si>
+  <si>
+    <t>FONDO DE INVERSION COLECTIVA ABIERTO RENTA BALANCEADO</t>
   </si>
 </sst>
 </file>
@@ -3077,8 +3074,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:K606"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A476" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D493" sqref="D493"/>
+    <sheetView tabSelected="1" topLeftCell="A576" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D606"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3124,7 +3121,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>9</v>
@@ -3482,7 +3479,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B12" s="5">
         <v>45077</v>
@@ -3491,7 +3488,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E12" s="12">
         <v>5</v>
@@ -3526,7 +3523,7 @@
         <v>11</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>830</v>
+        <v>823</v>
       </c>
       <c r="E13" s="13">
         <v>5</v>
@@ -3762,7 +3759,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B20" s="5">
         <v>45077</v>
@@ -3771,7 +3768,7 @@
         <v>11</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>630</v>
+        <v>866</v>
       </c>
       <c r="E20" s="12">
         <v>5</v>
@@ -3972,7 +3969,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B26" s="5">
         <v>45077</v>
@@ -3981,7 +3978,7 @@
         <v>11</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>630</v>
+        <v>866</v>
       </c>
       <c r="E26" s="12">
         <v>5</v>
@@ -4007,7 +4004,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B27" s="9">
         <v>45077</v>
@@ -4016,7 +4013,7 @@
         <v>11</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>633</v>
+        <v>867</v>
       </c>
       <c r="E27" s="13">
         <v>5</v>
@@ -4042,7 +4039,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="B28" s="5">
         <v>45077</v>
@@ -4051,7 +4048,7 @@
         <v>11</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="E28" s="12">
         <v>5</v>
@@ -4077,7 +4074,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B29" s="9">
         <v>45077</v>
@@ -4086,7 +4083,7 @@
         <v>11</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="E29" s="13">
         <v>5</v>
@@ -4112,7 +4109,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="B30" s="5">
         <v>45077</v>
@@ -4121,7 +4118,7 @@
         <v>11</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="E30" s="12">
         <v>5</v>
@@ -4217,7 +4214,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="B33" s="9">
         <v>45077</v>
@@ -4226,7 +4223,7 @@
         <v>11</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>639</v>
+        <v>868</v>
       </c>
       <c r="E33" s="13">
         <v>5</v>
@@ -4252,7 +4249,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="B34" s="5">
         <v>45077</v>
@@ -4261,7 +4258,7 @@
         <v>11</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>639</v>
+        <v>868</v>
       </c>
       <c r="E34" s="12">
         <v>5</v>
@@ -4357,7 +4354,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="8" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="B37" s="9">
         <v>45077</v>
@@ -4366,7 +4363,7 @@
         <v>55</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="E37" s="13">
         <v>5</v>
@@ -4567,13 +4564,13 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="8" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="B43" s="9">
         <v>45077</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="D43" s="10" t="s">
         <v>68</v>
@@ -4602,13 +4599,13 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="B44" s="5">
         <v>45077</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>68</v>
@@ -4777,7 +4774,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="8" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="B49" s="9">
         <v>45077</v>
@@ -4786,7 +4783,7 @@
         <v>71</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="E49" s="13">
         <v>5</v>
@@ -4812,7 +4809,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="B50" s="5">
         <v>45077</v>
@@ -4821,7 +4818,7 @@
         <v>81</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="E50" s="12">
         <v>5</v>
@@ -4856,7 +4853,7 @@
         <v>84</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>851</v>
+        <v>844</v>
       </c>
       <c r="E51" s="13">
         <v>5</v>
@@ -4891,7 +4888,7 @@
         <v>84</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>852</v>
+        <v>845</v>
       </c>
       <c r="E52" s="12">
         <v>5</v>
@@ -4926,7 +4923,7 @@
         <v>84</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>853</v>
+        <v>846</v>
       </c>
       <c r="E53" s="13">
         <v>5</v>
@@ -4961,7 +4958,7 @@
         <v>84</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>853</v>
+        <v>846</v>
       </c>
       <c r="E54" s="12">
         <v>5</v>
@@ -4987,7 +4984,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" s="8" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="B55" s="9">
         <v>45077</v>
@@ -4996,7 +4993,7 @@
         <v>89</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="E55" s="13">
         <v>5</v>
@@ -5022,7 +5019,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="B56" s="5">
         <v>45077</v>
@@ -5031,7 +5028,7 @@
         <v>89</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="E56" s="12">
         <v>5</v>
@@ -5101,7 +5098,7 @@
         <v>84</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="E58" s="12">
         <v>6</v>
@@ -5127,7 +5124,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" s="8" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="B59" s="9">
         <v>45077</v>
@@ -5136,7 +5133,7 @@
         <v>95</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="E59" s="13">
         <v>7</v>
@@ -5241,7 +5238,7 @@
         <v>92</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="E62" s="12">
         <v>8</v>
@@ -5442,7 +5439,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="B68" s="5">
         <v>45077</v>
@@ -5451,7 +5448,7 @@
         <v>81</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="E68" s="12">
         <v>6</v>
@@ -5477,7 +5474,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" s="8" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="B69" s="9">
         <v>45077</v>
@@ -5486,7 +5483,7 @@
         <v>81</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="E69" s="13">
         <v>4</v>
@@ -5547,7 +5544,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" s="8" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="B71" s="9">
         <v>45077</v>
@@ -5556,7 +5553,7 @@
         <v>101</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="E71" s="13">
         <v>6</v>
@@ -5591,7 +5588,7 @@
         <v>84</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="E72" s="12">
         <v>6</v>
@@ -5626,7 +5623,7 @@
         <v>84</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>853</v>
+        <v>846</v>
       </c>
       <c r="E73" s="13">
         <v>6</v>
@@ -5766,7 +5763,7 @@
         <v>71</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="E77" s="13">
         <v>6</v>
@@ -5801,7 +5798,7 @@
         <v>71</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>832</v>
+        <v>825</v>
       </c>
       <c r="E78" s="12">
         <v>6</v>
@@ -5836,7 +5833,7 @@
         <v>71</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>855</v>
+        <v>848</v>
       </c>
       <c r="E79" s="13">
         <v>6</v>
@@ -5862,7 +5859,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" s="4" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="B80" s="5">
         <v>45077</v>
@@ -5871,7 +5868,7 @@
         <v>71</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="E80" s="12">
         <v>6</v>
@@ -5906,7 +5903,7 @@
         <v>71</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="E81" s="13">
         <v>6</v>
@@ -6046,7 +6043,7 @@
         <v>92</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>856</v>
+        <v>849</v>
       </c>
       <c r="E85" s="13">
         <v>8</v>
@@ -6081,7 +6078,7 @@
         <v>92</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>856</v>
+        <v>849</v>
       </c>
       <c r="E86" s="12">
         <v>8</v>
@@ -6317,7 +6314,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93" s="8" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="B93" s="9">
         <v>45077</v>
@@ -6326,7 +6323,7 @@
         <v>55</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="E93" s="13">
         <v>7</v>
@@ -6387,7 +6384,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" s="8" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="B95" s="9">
         <v>45077</v>
@@ -6396,7 +6393,7 @@
         <v>95</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="E95" s="13">
         <v>7</v>
@@ -6597,7 +6594,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101" s="8" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="B101" s="9">
         <v>45077</v>
@@ -6606,7 +6603,7 @@
         <v>81</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="E101" s="13">
         <v>4</v>
@@ -6667,7 +6664,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A103" s="8" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="B103" s="9">
         <v>45077</v>
@@ -6676,7 +6673,7 @@
         <v>81</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="E103" s="13">
         <v>4</v>
@@ -6982,7 +6979,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A112" s="4" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="B112" s="5">
         <v>45077</v>
@@ -6991,7 +6988,7 @@
         <v>55</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="E112" s="12">
         <v>4</v>
@@ -7061,7 +7058,7 @@
         <v>165</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="E114" s="12">
         <v>4</v>
@@ -7096,7 +7093,7 @@
         <v>168</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="E115" s="13">
         <v>7</v>
@@ -7157,7 +7154,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A117" s="8" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="B117" s="9">
         <v>45077</v>
@@ -7166,7 +7163,7 @@
         <v>171</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="E117" s="13">
         <v>7</v>
@@ -7201,7 +7198,7 @@
         <v>168</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="E118" s="12">
         <v>7</v>
@@ -7297,7 +7294,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A121" s="8" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="B121" s="9">
         <v>45077</v>
@@ -7306,7 +7303,7 @@
         <v>171</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="E121" s="13">
         <v>4</v>
@@ -7411,7 +7408,7 @@
         <v>168</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="E124" s="12">
         <v>7</v>
@@ -7446,7 +7443,7 @@
         <v>168</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="E125" s="13">
         <v>7</v>
@@ -7787,7 +7784,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A135" s="8" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="B135" s="9">
         <v>45077</v>
@@ -7796,7 +7793,7 @@
         <v>81</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="E135" s="13">
         <v>4</v>
@@ -7822,7 +7819,7 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A136" s="4" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="B136" s="5">
         <v>45077</v>
@@ -7831,7 +7828,7 @@
         <v>55</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="E136" s="12">
         <v>7</v>
@@ -7857,7 +7854,7 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A137" s="8" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="B137" s="9">
         <v>45077</v>
@@ -7866,7 +7863,7 @@
         <v>171</v>
       </c>
       <c r="D137" s="10" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="E137" s="13">
         <v>7</v>
@@ -8181,7 +8178,7 @@
         <v>168</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="E146" s="12">
         <v>7</v>
@@ -8216,7 +8213,7 @@
         <v>168</v>
       </c>
       <c r="D147" s="10" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="E147" s="13">
         <v>7</v>
@@ -8312,7 +8309,7 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A150" s="4" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="B150" s="5">
         <v>45077</v>
@@ -8321,7 +8318,7 @@
         <v>55</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="E150" s="12">
         <v>7</v>
@@ -8426,7 +8423,7 @@
         <v>168</v>
       </c>
       <c r="D153" s="10" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="E153" s="13">
         <v>7</v>
@@ -8461,7 +8458,7 @@
         <v>168</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="E154" s="12">
         <v>7</v>
@@ -8592,7 +8589,7 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A158" s="4" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="B158" s="5">
         <v>45077</v>
@@ -8601,7 +8598,7 @@
         <v>81</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="E158" s="12">
         <v>4</v>
@@ -8732,7 +8729,7 @@
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A162" s="4" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="B162" s="5">
         <v>45077</v>
@@ -8741,7 +8738,7 @@
         <v>81</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="E162" s="12">
         <v>4</v>
@@ -8776,7 +8773,7 @@
         <v>92</v>
       </c>
       <c r="D163" s="10" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="E163" s="13">
         <v>8</v>
@@ -8872,7 +8869,7 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A166" s="4" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="B166" s="5">
         <v>45077</v>
@@ -8881,7 +8878,7 @@
         <v>55</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="E166" s="12">
         <v>7</v>
@@ -8907,7 +8904,7 @@
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A167" s="8" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="B167" s="9">
         <v>45077</v>
@@ -8916,7 +8913,7 @@
         <v>171</v>
       </c>
       <c r="D167" s="10" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="E167" s="13">
         <v>4</v>
@@ -8986,7 +8983,7 @@
         <v>84</v>
       </c>
       <c r="D169" s="10" t="s">
-        <v>853</v>
+        <v>846</v>
       </c>
       <c r="E169" s="13">
         <v>4</v>
@@ -9056,7 +9053,7 @@
         <v>92</v>
       </c>
       <c r="D171" s="10" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
       <c r="E171" s="13">
         <v>8</v>
@@ -9091,7 +9088,7 @@
         <v>168</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="E172" s="12">
         <v>4</v>
@@ -9117,7 +9114,7 @@
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A173" s="8" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="B173" s="9">
         <v>45077</v>
@@ -9126,7 +9123,7 @@
         <v>168</v>
       </c>
       <c r="D173" s="10" t="s">
-        <v>678</v>
+        <v>869</v>
       </c>
       <c r="E173" s="13">
         <v>8</v>
@@ -9161,7 +9158,7 @@
         <v>168</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="E174" s="12">
         <v>7</v>
@@ -9327,7 +9324,7 @@
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A179" s="8" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="B179" s="9">
         <v>45077</v>
@@ -9336,7 +9333,7 @@
         <v>81</v>
       </c>
       <c r="D179" s="10" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="E179" s="13">
         <v>4</v>
@@ -9397,7 +9394,7 @@
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A181" s="8" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="B181" s="9">
         <v>45077</v>
@@ -9406,7 +9403,7 @@
         <v>81</v>
       </c>
       <c r="D181" s="10" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="E181" s="13">
         <v>4</v>
@@ -9581,7 +9578,7 @@
         <v>168</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="E186" s="12">
         <v>7</v>
@@ -9607,7 +9604,7 @@
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A187" s="8" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="B187" s="9">
         <v>45077</v>
@@ -9616,7 +9613,7 @@
         <v>179</v>
       </c>
       <c r="D187" s="10" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="E187" s="13">
         <v>8</v>
@@ -9686,7 +9683,7 @@
         <v>84</v>
       </c>
       <c r="D189" s="10" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
       <c r="E189" s="13">
         <v>8</v>
@@ -9721,7 +9718,7 @@
         <v>84</v>
       </c>
       <c r="D190" s="6" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
       <c r="E190" s="12">
         <v>8</v>
@@ -9747,7 +9744,7 @@
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A191" s="8" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="B191" s="9">
         <v>45077</v>
@@ -9756,7 +9753,7 @@
         <v>171</v>
       </c>
       <c r="D191" s="10" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="E191" s="13">
         <v>8</v>
@@ -9887,13 +9884,13 @@
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A195" s="8" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="B195" s="9">
         <v>45077</v>
       </c>
       <c r="C195" s="10" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="D195" s="10" t="s">
         <v>252</v>
@@ -10001,7 +9998,7 @@
         <v>257</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>258</v>
+        <v>870</v>
       </c>
       <c r="E198" s="12">
         <v>8</v>
@@ -10027,7 +10024,7 @@
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A199" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B199" s="9">
         <v>45077</v>
@@ -10036,7 +10033,7 @@
         <v>257</v>
       </c>
       <c r="D199" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E199" s="13">
         <v>8</v>
@@ -10062,7 +10059,7 @@
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A200" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B200" s="5">
         <v>45077</v>
@@ -10071,7 +10068,7 @@
         <v>168</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>860</v>
+        <v>853</v>
       </c>
       <c r="E200" s="12">
         <v>8</v>
@@ -10097,16 +10094,16 @@
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A201" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="B201" s="9">
+        <v>45077</v>
+      </c>
+      <c r="C201" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="B201" s="9">
-        <v>45077</v>
-      </c>
-      <c r="C201" s="10" t="s">
+      <c r="D201" s="10" t="s">
         <v>263</v>
-      </c>
-      <c r="D201" s="10" t="s">
-        <v>264</v>
       </c>
       <c r="E201" s="13">
         <v>8</v>
@@ -10132,16 +10129,16 @@
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A202" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B202" s="5">
+        <v>45077</v>
+      </c>
+      <c r="C202" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="D202" s="6" t="s">
         <v>265</v>
-      </c>
-      <c r="B202" s="5">
-        <v>45077</v>
-      </c>
-      <c r="C202" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="D202" s="6" t="s">
-        <v>266</v>
       </c>
       <c r="E202" s="12">
         <v>8</v>
@@ -10167,7 +10164,7 @@
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A203" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B203" s="9">
         <v>45077</v>
@@ -10176,7 +10173,7 @@
         <v>179</v>
       </c>
       <c r="D203" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E203" s="13">
         <v>8</v>
@@ -10202,16 +10199,16 @@
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A204" s="4" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="B204" s="5">
         <v>45077</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D204" s="6" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="E204" s="12">
         <v>8</v>
@@ -10237,16 +10234,16 @@
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A205" s="8" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="B205" s="9">
         <v>45077</v>
       </c>
       <c r="C205" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D205" s="10" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="E205" s="13">
         <v>8</v>
@@ -10272,16 +10269,16 @@
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A206" s="4" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="B206" s="5">
         <v>45077</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>688</v>
+        <v>871</v>
       </c>
       <c r="E206" s="12">
         <v>8</v>
@@ -10307,7 +10304,7 @@
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A207" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B207" s="9">
         <v>45077</v>
@@ -10316,7 +10313,7 @@
         <v>165</v>
       </c>
       <c r="D207" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E207" s="13">
         <v>8</v>
@@ -10342,7 +10339,7 @@
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A208" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B208" s="5">
         <v>45077</v>
@@ -10351,7 +10348,7 @@
         <v>165</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>835</v>
+        <v>828</v>
       </c>
       <c r="E208" s="12">
         <v>8</v>
@@ -10377,7 +10374,7 @@
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A209" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B209" s="9">
         <v>45077</v>
@@ -10386,7 +10383,7 @@
         <v>165</v>
       </c>
       <c r="D209" s="10" t="s">
-        <v>836</v>
+        <v>829</v>
       </c>
       <c r="E209" s="13">
         <v>8</v>
@@ -10412,7 +10409,7 @@
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A210" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B210" s="5">
         <v>45077</v>
@@ -10421,7 +10418,7 @@
         <v>165</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>837</v>
+        <v>830</v>
       </c>
       <c r="E210" s="12">
         <v>8</v>
@@ -10447,7 +10444,7 @@
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A211" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B211" s="9">
         <v>45077</v>
@@ -10456,7 +10453,7 @@
         <v>165</v>
       </c>
       <c r="D211" s="10" t="s">
-        <v>838</v>
+        <v>831</v>
       </c>
       <c r="E211" s="13">
         <v>8</v>
@@ -10482,7 +10479,7 @@
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A212" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B212" s="5">
         <v>45077</v>
@@ -10491,7 +10488,7 @@
         <v>92</v>
       </c>
       <c r="D212" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E212" s="12">
         <v>8</v>
@@ -10517,7 +10514,7 @@
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A213" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B213" s="9">
         <v>45077</v>
@@ -10526,7 +10523,7 @@
         <v>92</v>
       </c>
       <c r="D213" s="10" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="E213" s="13">
         <v>8</v>
@@ -10552,7 +10549,7 @@
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A214" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B214" s="5">
         <v>45077</v>
@@ -10561,7 +10558,7 @@
         <v>92</v>
       </c>
       <c r="D214" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E214" s="12">
         <v>8</v>
@@ -10587,7 +10584,7 @@
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A215" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B215" s="9">
         <v>45077</v>
@@ -10622,7 +10619,7 @@
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A216" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B216" s="5">
         <v>45077</v>
@@ -10631,7 +10628,7 @@
         <v>92</v>
       </c>
       <c r="D216" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E216" s="12">
         <v>8</v>
@@ -10657,7 +10654,7 @@
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A217" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B217" s="9">
         <v>45077</v>
@@ -10692,7 +10689,7 @@
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A218" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B218" s="5">
         <v>45077</v>
@@ -10701,7 +10698,7 @@
         <v>92</v>
       </c>
       <c r="D218" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E218" s="12">
         <v>8</v>
@@ -10727,7 +10724,7 @@
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A219" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B219" s="9">
         <v>45077</v>
@@ -10762,7 +10759,7 @@
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A220" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B220" s="5">
         <v>45077</v>
@@ -10797,7 +10794,7 @@
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A221" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B221" s="9">
         <v>45077</v>
@@ -10806,7 +10803,7 @@
         <v>92</v>
       </c>
       <c r="D221" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E221" s="13">
         <v>8</v>
@@ -10832,7 +10829,7 @@
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A222" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B222" s="5">
         <v>45077</v>
@@ -10841,7 +10838,7 @@
         <v>92</v>
       </c>
       <c r="D222" s="6" t="s">
-        <v>861</v>
+        <v>854</v>
       </c>
       <c r="E222" s="12">
         <v>8</v>
@@ -10867,7 +10864,7 @@
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A223" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B223" s="9">
         <v>45077</v>
@@ -10876,7 +10873,7 @@
         <v>171</v>
       </c>
       <c r="D223" s="10" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="E223" s="13">
         <v>8</v>
@@ -10902,7 +10899,7 @@
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A224" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B224" s="5">
         <v>45077</v>
@@ -10911,7 +10908,7 @@
         <v>92</v>
       </c>
       <c r="D224" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E224" s="12">
         <v>8</v>
@@ -10937,7 +10934,7 @@
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A225" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B225" s="9">
         <v>45077</v>
@@ -10946,7 +10943,7 @@
         <v>92</v>
       </c>
       <c r="D225" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E225" s="13">
         <v>8</v>
@@ -10972,7 +10969,7 @@
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A226" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B226" s="5">
         <v>45077</v>
@@ -10981,7 +10978,7 @@
         <v>179</v>
       </c>
       <c r="D226" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E226" s="12">
         <v>8</v>
@@ -11007,7 +11004,7 @@
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A227" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B227" s="9">
         <v>45077</v>
@@ -11016,7 +11013,7 @@
         <v>92</v>
       </c>
       <c r="D227" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E227" s="13">
         <v>8</v>
@@ -11042,7 +11039,7 @@
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A228" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B228" s="5">
         <v>45077</v>
@@ -11051,7 +11048,7 @@
         <v>11</v>
       </c>
       <c r="D228" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E228" s="12">
         <v>8</v>
@@ -11077,7 +11074,7 @@
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A229" s="8" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="B229" s="9">
         <v>45077</v>
@@ -11086,7 +11083,7 @@
         <v>95</v>
       </c>
       <c r="D229" s="10" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="E229" s="13">
         <v>8</v>
@@ -11112,7 +11109,7 @@
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A230" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B230" s="5">
         <v>45077</v>
@@ -11121,7 +11118,7 @@
         <v>84</v>
       </c>
       <c r="D230" s="6" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
       <c r="E230" s="12">
         <v>8</v>
@@ -11147,7 +11144,7 @@
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A231" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B231" s="9">
         <v>45077</v>
@@ -11156,7 +11153,7 @@
         <v>75</v>
       </c>
       <c r="D231" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E231" s="13">
         <v>8</v>
@@ -11182,7 +11179,7 @@
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A232" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B232" s="5">
         <v>45077</v>
@@ -11191,7 +11188,7 @@
         <v>75</v>
       </c>
       <c r="D232" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E232" s="12">
         <v>8</v>
@@ -11217,7 +11214,7 @@
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A233" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B233" s="9">
         <v>45077</v>
@@ -11226,7 +11223,7 @@
         <v>55</v>
       </c>
       <c r="D233" s="10" t="s">
-        <v>863</v>
+        <v>856</v>
       </c>
       <c r="E233" s="13">
         <v>8</v>
@@ -11252,7 +11249,7 @@
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A234" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B234" s="5">
         <v>45077</v>
@@ -11261,7 +11258,7 @@
         <v>84</v>
       </c>
       <c r="D234" s="6" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
       <c r="E234" s="12">
         <v>8</v>
@@ -11287,16 +11284,16 @@
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A235" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="B235" s="9">
+        <v>45077</v>
+      </c>
+      <c r="C235" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="B235" s="9">
-        <v>45077</v>
-      </c>
-      <c r="C235" s="10" t="s">
+      <c r="D235" s="10" t="s">
         <v>311</v>
-      </c>
-      <c r="D235" s="10" t="s">
-        <v>312</v>
       </c>
       <c r="E235" s="13">
         <v>8</v>
@@ -11322,7 +11319,7 @@
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A236" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B236" s="5">
         <v>45077</v>
@@ -11331,7 +11328,7 @@
         <v>179</v>
       </c>
       <c r="D236" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E236" s="12">
         <v>8</v>
@@ -11357,7 +11354,7 @@
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A237" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B237" s="9">
         <v>45077</v>
@@ -11392,7 +11389,7 @@
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A238" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B238" s="5">
         <v>45077</v>
@@ -11427,7 +11424,7 @@
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A239" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B239" s="9">
         <v>45077</v>
@@ -11462,16 +11459,16 @@
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A240" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B240" s="5">
+        <v>45077</v>
+      </c>
+      <c r="C240" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="D240" s="6" t="s">
         <v>318</v>
-      </c>
-      <c r="B240" s="5">
-        <v>45077</v>
-      </c>
-      <c r="C240" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="D240" s="6" t="s">
-        <v>319</v>
       </c>
       <c r="E240" s="12">
         <v>8</v>
@@ -11497,16 +11494,16 @@
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A241" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="B241" s="9">
+        <v>45077</v>
+      </c>
+      <c r="C241" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="D241" s="10" t="s">
         <v>320</v>
-      </c>
-      <c r="B241" s="9">
-        <v>45077</v>
-      </c>
-      <c r="C241" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="D241" s="10" t="s">
-        <v>321</v>
       </c>
       <c r="E241" s="13">
         <v>8</v>
@@ -11532,16 +11529,16 @@
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A242" s="4" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="B242" s="5">
         <v>45077</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D242" s="6" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="E242" s="12">
         <v>8</v>
@@ -11567,16 +11564,16 @@
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A243" s="8" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="B243" s="9">
         <v>45077</v>
       </c>
       <c r="C243" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D243" s="10" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="E243" s="13">
         <v>8</v>
@@ -11602,16 +11599,16 @@
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A244" s="4" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="B244" s="5">
         <v>45077</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D244" s="6" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="E244" s="12">
         <v>8</v>
@@ -11637,7 +11634,7 @@
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A245" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B245" s="9">
         <v>45077</v>
@@ -11646,7 +11643,7 @@
         <v>171</v>
       </c>
       <c r="D245" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E245" s="13">
         <v>8</v>
@@ -11672,7 +11669,7 @@
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A246" s="4" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="B246" s="5">
         <v>45077</v>
@@ -11681,7 +11678,7 @@
         <v>171</v>
       </c>
       <c r="D246" s="6" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="E246" s="12">
         <v>8</v>
@@ -11707,7 +11704,7 @@
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A247" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B247" s="9">
         <v>45077</v>
@@ -11716,7 +11713,7 @@
         <v>171</v>
       </c>
       <c r="D247" s="10" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="E247" s="13">
         <v>8</v>
@@ -11742,7 +11739,7 @@
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A248" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B248" s="5">
         <v>45077</v>
@@ -11751,7 +11748,7 @@
         <v>171</v>
       </c>
       <c r="D248" s="6" t="s">
-        <v>842</v>
+        <v>835</v>
       </c>
       <c r="E248" s="12">
         <v>8</v>
@@ -11777,7 +11774,7 @@
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A249" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B249" s="9">
         <v>45077</v>
@@ -11786,7 +11783,7 @@
         <v>171</v>
       </c>
       <c r="D249" s="10" t="s">
-        <v>843</v>
+        <v>836</v>
       </c>
       <c r="E249" s="13">
         <v>8</v>
@@ -11812,7 +11809,7 @@
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A250" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B250" s="5">
         <v>45077</v>
@@ -11821,7 +11818,7 @@
         <v>165</v>
       </c>
       <c r="D250" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E250" s="12">
         <v>8</v>
@@ -11847,7 +11844,7 @@
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A251" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B251" s="9">
         <v>45077</v>
@@ -11856,7 +11853,7 @@
         <v>165</v>
       </c>
       <c r="D251" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E251" s="13">
         <v>8</v>
@@ -11882,7 +11879,7 @@
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A252" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B252" s="5">
         <v>45077</v>
@@ -11891,7 +11888,7 @@
         <v>165</v>
       </c>
       <c r="D252" s="6" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="E252" s="12">
         <v>8</v>
@@ -11917,16 +11914,16 @@
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A253" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="B253" s="9">
+        <v>45077</v>
+      </c>
+      <c r="C253" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="B253" s="9">
-        <v>45077</v>
-      </c>
-      <c r="C253" s="10" t="s">
+      <c r="D253" s="10" t="s">
         <v>333</v>
-      </c>
-      <c r="D253" s="10" t="s">
-        <v>334</v>
       </c>
       <c r="E253" s="13">
         <v>8</v>
@@ -11952,16 +11949,16 @@
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A254" s="4" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="B254" s="5">
         <v>45077</v>
       </c>
       <c r="C254" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D254" s="6" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="E254" s="12">
         <v>8</v>
@@ -11987,16 +11984,16 @@
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A255" s="8" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="B255" s="9">
         <v>45077</v>
       </c>
       <c r="C255" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D255" s="10" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="E255" s="13">
         <v>8</v>
@@ -12022,16 +12019,16 @@
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A256" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="B256" s="5">
+        <v>45077</v>
+      </c>
+      <c r="C256" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="D256" s="6" t="s">
         <v>336</v>
-      </c>
-      <c r="B256" s="5">
-        <v>45077</v>
-      </c>
-      <c r="C256" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="D256" s="6" t="s">
-        <v>337</v>
       </c>
       <c r="E256" s="12">
         <v>8</v>
@@ -12057,16 +12054,16 @@
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A257" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B257" s="9">
         <v>45077</v>
       </c>
       <c r="C257" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D257" s="10" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
       <c r="E257" s="13">
         <v>8</v>
@@ -12092,16 +12089,16 @@
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A258" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B258" s="5">
         <v>45077</v>
       </c>
       <c r="C258" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D258" s="6" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="E258" s="12">
         <v>8</v>
@@ -12127,16 +12124,16 @@
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A259" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="B259" s="9">
+        <v>45077</v>
+      </c>
+      <c r="C259" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="D259" s="10" t="s">
         <v>340</v>
-      </c>
-      <c r="B259" s="9">
-        <v>45077</v>
-      </c>
-      <c r="C259" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="D259" s="10" t="s">
-        <v>341</v>
       </c>
       <c r="E259" s="13">
         <v>8</v>
@@ -12162,16 +12159,16 @@
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A260" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B260" s="5">
         <v>45077</v>
       </c>
       <c r="C260" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D260" s="6" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="E260" s="12">
         <v>8</v>
@@ -12197,7 +12194,7 @@
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A261" s="8" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="B261" s="9">
         <v>45077</v>
@@ -12206,7 +12203,7 @@
         <v>81</v>
       </c>
       <c r="D261" s="10" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="E261" s="13">
         <v>5</v>
@@ -12232,7 +12229,7 @@
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A262" s="4" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="B262" s="5">
         <v>45077</v>
@@ -12241,7 +12238,7 @@
         <v>81</v>
       </c>
       <c r="D262" s="6" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="E262" s="12">
         <v>5</v>
@@ -12267,7 +12264,7 @@
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A263" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B263" s="9">
         <v>45077</v>
@@ -12302,7 +12299,7 @@
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A264" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B264" s="5">
         <v>45077</v>
@@ -12337,7 +12334,7 @@
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A265" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B265" s="9">
         <v>45077</v>
@@ -12372,7 +12369,7 @@
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A266" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B266" s="5">
         <v>45077</v>
@@ -12381,7 +12378,7 @@
         <v>168</v>
       </c>
       <c r="D266" s="6" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="E266" s="12">
         <v>5</v>
@@ -12407,7 +12404,7 @@
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A267" s="8" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="B267" s="9">
         <v>45077</v>
@@ -12416,7 +12413,7 @@
         <v>89</v>
       </c>
       <c r="D267" s="10" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="E267" s="13">
         <v>5</v>
@@ -12442,7 +12439,7 @@
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A268" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B268" s="5">
         <v>45077</v>
@@ -12477,7 +12474,7 @@
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A269" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B269" s="9">
         <v>45077</v>
@@ -12512,16 +12509,16 @@
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A270" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="B270" s="5">
+        <v>45077</v>
+      </c>
+      <c r="C270" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="D270" s="6" t="s">
         <v>349</v>
-      </c>
-      <c r="B270" s="5">
-        <v>45077</v>
-      </c>
-      <c r="C270" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="D270" s="6" t="s">
-        <v>350</v>
       </c>
       <c r="E270" s="12">
         <v>5</v>
@@ -12547,16 +12544,16 @@
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A271" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="B271" s="9">
+        <v>45077</v>
+      </c>
+      <c r="C271" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="B271" s="9">
-        <v>45077</v>
-      </c>
-      <c r="C271" s="10" t="s">
-        <v>352</v>
-      </c>
       <c r="D271" s="10" t="s">
-        <v>848</v>
+        <v>841</v>
       </c>
       <c r="E271" s="13">
         <v>5</v>
@@ -12582,7 +12579,7 @@
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A272" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B272" s="5">
         <v>45077</v>
@@ -12617,7 +12614,7 @@
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A273" s="8" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="B273" s="9">
         <v>45077</v>
@@ -12626,7 +12623,7 @@
         <v>81</v>
       </c>
       <c r="D273" s="10" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="E273" s="13">
         <v>5</v>
@@ -12652,7 +12649,7 @@
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A274" s="4" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="B274" s="5">
         <v>45077</v>
@@ -12661,7 +12658,7 @@
         <v>81</v>
       </c>
       <c r="D274" s="6" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="E274" s="12">
         <v>5</v>
@@ -12687,16 +12684,16 @@
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A275" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="B275" s="9">
+        <v>45077</v>
+      </c>
+      <c r="C275" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="B275" s="9">
-        <v>45077</v>
-      </c>
-      <c r="C275" s="10" t="s">
+      <c r="D275" s="10" t="s">
         <v>355</v>
-      </c>
-      <c r="D275" s="10" t="s">
-        <v>356</v>
       </c>
       <c r="E275" s="13">
         <v>5</v>
@@ -12722,16 +12719,16 @@
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A276" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="B276" s="5">
+        <v>45077</v>
+      </c>
+      <c r="C276" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="D276" s="6" t="s">
         <v>357</v>
-      </c>
-      <c r="B276" s="5">
-        <v>45077</v>
-      </c>
-      <c r="C276" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="D276" s="6" t="s">
-        <v>358</v>
       </c>
       <c r="E276" s="12">
         <v>5</v>
@@ -12757,16 +12754,16 @@
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A277" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="B277" s="9">
+        <v>45077</v>
+      </c>
+      <c r="C277" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="D277" s="10" t="s">
         <v>359</v>
-      </c>
-      <c r="B277" s="9">
-        <v>45077</v>
-      </c>
-      <c r="C277" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="D277" s="10" t="s">
-        <v>360</v>
       </c>
       <c r="E277" s="13">
         <v>5</v>
@@ -12792,16 +12789,16 @@
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A278" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B278" s="5">
+        <v>45077</v>
+      </c>
+      <c r="C278" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="D278" s="6" t="s">
         <v>361</v>
-      </c>
-      <c r="B278" s="5">
-        <v>45077</v>
-      </c>
-      <c r="C278" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="D278" s="6" t="s">
-        <v>362</v>
       </c>
       <c r="E278" s="12">
         <v>5</v>
@@ -12827,16 +12824,16 @@
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A279" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="B279" s="9">
+        <v>45077</v>
+      </c>
+      <c r="C279" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="D279" s="10" t="s">
         <v>363</v>
-      </c>
-      <c r="B279" s="9">
-        <v>45077</v>
-      </c>
-      <c r="C279" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="D279" s="10" t="s">
-        <v>364</v>
       </c>
       <c r="E279" s="13">
         <v>5</v>
@@ -12862,16 +12859,16 @@
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A280" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="B280" s="5">
+        <v>45077</v>
+      </c>
+      <c r="C280" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="D280" s="6" t="s">
         <v>365</v>
-      </c>
-      <c r="B280" s="5">
-        <v>45077</v>
-      </c>
-      <c r="C280" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="D280" s="6" t="s">
-        <v>366</v>
       </c>
       <c r="E280" s="12">
         <v>5</v>
@@ -12897,16 +12894,16 @@
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A281" s="8" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B281" s="9">
         <v>45077</v>
       </c>
       <c r="C281" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D281" s="10" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E281" s="13">
         <v>5</v>
@@ -12932,7 +12929,7 @@
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A282" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B282" s="5">
         <v>45077</v>
@@ -12967,7 +12964,7 @@
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A283" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B283" s="9">
         <v>45077</v>
@@ -13002,7 +12999,7 @@
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A284" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B284" s="5">
         <v>45077</v>
@@ -13037,7 +13034,7 @@
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A285" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B285" s="9">
         <v>45077</v>
@@ -13072,16 +13069,16 @@
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A286" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B286" s="5">
         <v>45077</v>
       </c>
       <c r="C286" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D286" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E286" s="12">
         <v>5</v>
@@ -13107,16 +13104,16 @@
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A287" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B287" s="9">
         <v>45077</v>
       </c>
       <c r="C287" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D287" s="10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E287" s="13">
         <v>5</v>
@@ -13142,16 +13139,16 @@
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A288" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B288" s="5">
         <v>45077</v>
       </c>
       <c r="C288" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D288" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E288" s="12">
         <v>5</v>
@@ -13177,7 +13174,7 @@
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A289" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B289" s="9">
         <v>45077</v>
@@ -13186,7 +13183,7 @@
         <v>92</v>
       </c>
       <c r="D289" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E289" s="13">
         <v>5</v>
@@ -13212,7 +13209,7 @@
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A290" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B290" s="5">
         <v>45077</v>
@@ -13221,7 +13218,7 @@
         <v>92</v>
       </c>
       <c r="D290" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E290" s="12">
         <v>5</v>
@@ -13247,7 +13244,7 @@
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A291" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B291" s="9">
         <v>45077</v>
@@ -13256,7 +13253,7 @@
         <v>92</v>
       </c>
       <c r="D291" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E291" s="13">
         <v>5</v>
@@ -13282,16 +13279,16 @@
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A292" s="4" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="B292" s="5">
         <v>45077</v>
       </c>
       <c r="C292" s="6" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="D292" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E292" s="12">
         <v>5</v>
@@ -13317,16 +13314,16 @@
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A293" s="8" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="B293" s="9">
         <v>45077</v>
       </c>
       <c r="C293" s="10" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="D293" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E293" s="13">
         <v>5</v>
@@ -13352,16 +13349,16 @@
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A294" s="4" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="B294" s="5">
         <v>45077</v>
       </c>
       <c r="C294" s="6" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="D294" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E294" s="12">
         <v>5</v>
@@ -13387,16 +13384,16 @@
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A295" s="8" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="B295" s="9">
         <v>45077</v>
       </c>
       <c r="C295" s="10" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="D295" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E295" s="13">
         <v>5</v>
@@ -13422,16 +13419,16 @@
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A296" s="4" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="B296" s="5">
         <v>45077</v>
       </c>
       <c r="C296" s="6" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="D296" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E296" s="12">
         <v>5</v>
@@ -13457,13 +13454,13 @@
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A297" s="8" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="B297" s="9">
         <v>45077</v>
       </c>
       <c r="C297" s="10" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="D297" s="10" t="s">
         <v>68</v>
@@ -13492,13 +13489,13 @@
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A298" s="4" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="B298" s="5">
         <v>45077</v>
       </c>
       <c r="C298" s="6" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="D298" s="6" t="s">
         <v>68</v>
@@ -13527,13 +13524,13 @@
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A299" s="8" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="B299" s="9">
         <v>45077</v>
       </c>
       <c r="C299" s="10" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="D299" s="10" t="s">
         <v>68</v>
@@ -13562,16 +13559,16 @@
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A300" s="4" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="B300" s="5">
         <v>45077</v>
       </c>
       <c r="C300" s="6" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="D300" s="6" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="E300" s="12">
         <v>5</v>
@@ -13597,16 +13594,16 @@
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A301" s="8" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="B301" s="9">
         <v>45077</v>
       </c>
       <c r="C301" s="10" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="D301" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E301" s="13">
         <v>5</v>
@@ -13632,16 +13629,16 @@
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A302" s="4" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="B302" s="5">
         <v>45077</v>
       </c>
       <c r="C302" s="6" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="D302" s="6" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="E302" s="12">
         <v>5</v>
@@ -13667,16 +13664,16 @@
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A303" s="8" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
       <c r="B303" s="9">
         <v>45077</v>
       </c>
       <c r="C303" s="10" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="D303" s="10" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
       <c r="E303" s="13">
         <v>5</v>
@@ -13702,7 +13699,7 @@
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A304" s="4" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="B304" s="5">
         <v>45077</v>
@@ -13711,7 +13708,7 @@
         <v>89</v>
       </c>
       <c r="D304" s="6" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="E304" s="12">
         <v>5</v>
@@ -13737,7 +13734,7 @@
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A305" s="8" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="B305" s="9">
         <v>45077</v>
@@ -13746,7 +13743,7 @@
         <v>89</v>
       </c>
       <c r="D305" s="10" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="E305" s="13">
         <v>5</v>
@@ -13772,7 +13769,7 @@
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A306" s="4" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="B306" s="5">
         <v>45077</v>
@@ -13781,7 +13778,7 @@
         <v>89</v>
       </c>
       <c r="D306" s="6" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="E306" s="12">
         <v>5</v>
@@ -13807,7 +13804,7 @@
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A307" s="8" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="B307" s="9">
         <v>45077</v>
@@ -13816,7 +13813,7 @@
         <v>89</v>
       </c>
       <c r="D307" s="10" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="E307" s="13">
         <v>5</v>
@@ -13842,7 +13839,7 @@
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A308" s="4" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="B308" s="5">
         <v>45077</v>
@@ -13851,7 +13848,7 @@
         <v>89</v>
       </c>
       <c r="D308" s="6" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="E308" s="12">
         <v>5</v>
@@ -13877,7 +13874,7 @@
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A309" s="8" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="B309" s="9">
         <v>45077</v>
@@ -13886,7 +13883,7 @@
         <v>89</v>
       </c>
       <c r="D309" s="10" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="E309" s="13">
         <v>5</v>
@@ -13912,7 +13909,7 @@
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A310" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B310" s="5">
         <v>45077</v>
@@ -13921,7 +13918,7 @@
         <v>84</v>
       </c>
       <c r="D310" s="6" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="E310" s="12">
         <v>5</v>
@@ -13947,7 +13944,7 @@
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A311" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B311" s="9">
         <v>45077</v>
@@ -13956,7 +13953,7 @@
         <v>84</v>
       </c>
       <c r="D311" s="10" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="E311" s="13">
         <v>5</v>
@@ -13982,7 +13979,7 @@
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A312" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B312" s="5">
         <v>45077</v>
@@ -13991,7 +13988,7 @@
         <v>84</v>
       </c>
       <c r="D312" s="6" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="E312" s="12">
         <v>5</v>
@@ -14017,7 +14014,7 @@
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A313" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B313" s="9">
         <v>45077</v>
@@ -14026,7 +14023,7 @@
         <v>84</v>
       </c>
       <c r="D313" s="10" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="E313" s="13">
         <v>5</v>
@@ -14052,7 +14049,7 @@
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A314" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B314" s="5">
         <v>45077</v>
@@ -14061,7 +14058,7 @@
         <v>84</v>
       </c>
       <c r="D314" s="6" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="E314" s="12">
         <v>5</v>
@@ -14087,7 +14084,7 @@
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A315" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B315" s="9">
         <v>45077</v>
@@ -14096,7 +14093,7 @@
         <v>84</v>
       </c>
       <c r="D315" s="10" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="E315" s="13">
         <v>5</v>
@@ -14122,7 +14119,7 @@
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A316" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B316" s="5">
         <v>45077</v>
@@ -14131,7 +14128,7 @@
         <v>84</v>
       </c>
       <c r="D316" s="6" t="s">
-        <v>853</v>
+        <v>846</v>
       </c>
       <c r="E316" s="12">
         <v>5</v>
@@ -14157,7 +14154,7 @@
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A317" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B317" s="9">
         <v>45077</v>
@@ -14166,7 +14163,7 @@
         <v>84</v>
       </c>
       <c r="D317" s="10" t="s">
-        <v>853</v>
+        <v>846</v>
       </c>
       <c r="E317" s="13">
         <v>5</v>
@@ -14192,7 +14189,7 @@
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A318" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B318" s="5">
         <v>45077</v>
@@ -14201,7 +14198,7 @@
         <v>84</v>
       </c>
       <c r="D318" s="6" t="s">
-        <v>853</v>
+        <v>846</v>
       </c>
       <c r="E318" s="12">
         <v>5</v>
@@ -14227,7 +14224,7 @@
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A319" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B319" s="9">
         <v>45077</v>
@@ -14236,7 +14233,7 @@
         <v>84</v>
       </c>
       <c r="D319" s="10" t="s">
-        <v>853</v>
+        <v>846</v>
       </c>
       <c r="E319" s="13">
         <v>5</v>
@@ -14262,7 +14259,7 @@
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A320" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B320" s="5">
         <v>45077</v>
@@ -14271,7 +14268,7 @@
         <v>84</v>
       </c>
       <c r="D320" s="6" t="s">
-        <v>852</v>
+        <v>845</v>
       </c>
       <c r="E320" s="12">
         <v>5</v>
@@ -14297,7 +14294,7 @@
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A321" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B321" s="9">
         <v>45077</v>
@@ -14306,7 +14303,7 @@
         <v>84</v>
       </c>
       <c r="D321" s="10" t="s">
-        <v>851</v>
+        <v>844</v>
       </c>
       <c r="E321" s="13">
         <v>5</v>
@@ -14332,7 +14329,7 @@
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A322" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B322" s="5">
         <v>45077</v>
@@ -14341,7 +14338,7 @@
         <v>84</v>
       </c>
       <c r="D322" s="6" t="s">
-        <v>868</v>
+        <v>861</v>
       </c>
       <c r="E322" s="12">
         <v>5</v>
@@ -14367,7 +14364,7 @@
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A323" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B323" s="9">
         <v>45077</v>
@@ -14376,7 +14373,7 @@
         <v>84</v>
       </c>
       <c r="D323" s="10" t="s">
-        <v>865</v>
+        <v>858</v>
       </c>
       <c r="E323" s="13">
         <v>5</v>
@@ -14402,7 +14399,7 @@
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A324" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B324" s="5">
         <v>45077</v>
@@ -14411,7 +14408,7 @@
         <v>84</v>
       </c>
       <c r="D324" s="6" t="s">
-        <v>868</v>
+        <v>861</v>
       </c>
       <c r="E324" s="12">
         <v>5</v>
@@ -14437,7 +14434,7 @@
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A325" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B325" s="9">
         <v>45077</v>
@@ -14446,7 +14443,7 @@
         <v>84</v>
       </c>
       <c r="D325" s="10" t="s">
-        <v>852</v>
+        <v>845</v>
       </c>
       <c r="E325" s="13">
         <v>5</v>
@@ -14472,7 +14469,7 @@
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A326" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B326" s="5">
         <v>45077</v>
@@ -14481,7 +14478,7 @@
         <v>84</v>
       </c>
       <c r="D326" s="6" t="s">
-        <v>851</v>
+        <v>844</v>
       </c>
       <c r="E326" s="12">
         <v>5</v>
@@ -14507,16 +14504,16 @@
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A327" s="8" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="B327" s="9">
         <v>45077</v>
       </c>
       <c r="C327" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D327" s="10" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="E327" s="13">
         <v>5</v>
@@ -14542,16 +14539,16 @@
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A328" s="4" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="B328" s="5">
         <v>45077</v>
       </c>
       <c r="C328" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D328" s="6" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="E328" s="12">
         <v>5</v>
@@ -14577,16 +14574,16 @@
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A329" s="8" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="B329" s="9">
         <v>45077</v>
       </c>
       <c r="C329" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D329" s="10" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="E329" s="13">
         <v>5</v>
@@ -14612,16 +14609,16 @@
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A330" s="4" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="B330" s="5">
         <v>45077</v>
       </c>
       <c r="C330" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D330" s="6" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="E330" s="12">
         <v>5</v>
@@ -14647,16 +14644,16 @@
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A331" s="8" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="B331" s="9">
         <v>45077</v>
       </c>
       <c r="C331" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D331" s="10" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="E331" s="13">
         <v>5</v>
@@ -14682,16 +14679,16 @@
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A332" s="4" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="B332" s="5">
         <v>45077</v>
       </c>
       <c r="C332" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D332" s="6" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="E332" s="12">
         <v>5</v>
@@ -14717,16 +14714,16 @@
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A333" s="8" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="B333" s="9">
         <v>45077</v>
       </c>
       <c r="C333" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D333" s="10" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="E333" s="13">
         <v>5</v>
@@ -14752,16 +14749,16 @@
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A334" s="4" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="B334" s="5">
         <v>45077</v>
       </c>
       <c r="C334" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D334" s="6" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="E334" s="12">
         <v>5</v>
@@ -14787,16 +14784,16 @@
     </row>
     <row r="335" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A335" s="8" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="B335" s="9">
         <v>45077</v>
       </c>
       <c r="C335" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D335" s="10" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="E335" s="13">
         <v>5</v>
@@ -14822,16 +14819,16 @@
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A336" s="4" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="B336" s="5">
         <v>45077</v>
       </c>
       <c r="C336" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D336" s="6" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="E336" s="12">
         <v>5</v>
@@ -14857,16 +14854,16 @@
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A337" s="8" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="B337" s="9">
         <v>45077</v>
       </c>
       <c r="C337" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D337" s="10" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="E337" s="13">
         <v>5</v>
@@ -14892,16 +14889,16 @@
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A338" s="4" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="B338" s="5">
         <v>45077</v>
       </c>
       <c r="C338" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D338" s="6" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="E338" s="12">
         <v>5</v>
@@ -14927,16 +14924,16 @@
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A339" s="8" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="B339" s="9">
         <v>45077</v>
       </c>
       <c r="C339" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D339" s="10" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="E339" s="13">
         <v>5</v>
@@ -14962,7 +14959,7 @@
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A340" s="4" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="B340" s="5">
         <v>45077</v>
@@ -14971,7 +14968,7 @@
         <v>171</v>
       </c>
       <c r="D340" s="6" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="E340" s="12">
         <v>5</v>
@@ -14997,7 +14994,7 @@
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A341" s="8" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="B341" s="9">
         <v>45077</v>
@@ -15006,7 +15003,7 @@
         <v>171</v>
       </c>
       <c r="D341" s="10" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="E341" s="13">
         <v>5</v>
@@ -15032,7 +15029,7 @@
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A342" s="4" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="B342" s="5">
         <v>45077</v>
@@ -15041,7 +15038,7 @@
         <v>171</v>
       </c>
       <c r="D342" s="6" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="E342" s="12">
         <v>5</v>
@@ -15067,7 +15064,7 @@
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A343" s="8" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="B343" s="9">
         <v>45077</v>
@@ -15076,7 +15073,7 @@
         <v>171</v>
       </c>
       <c r="D343" s="10" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="E343" s="13">
         <v>5</v>
@@ -15102,7 +15099,7 @@
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A344" s="4" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="B344" s="5">
         <v>45077</v>
@@ -15111,7 +15108,7 @@
         <v>171</v>
       </c>
       <c r="D344" s="6" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="E344" s="12">
         <v>5</v>
@@ -15137,7 +15134,7 @@
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A345" s="8" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="B345" s="9">
         <v>45077</v>
@@ -15146,7 +15143,7 @@
         <v>171</v>
       </c>
       <c r="D345" s="10" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="E345" s="13">
         <v>5</v>
@@ -15172,7 +15169,7 @@
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A346" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B346" s="5">
         <v>45077</v>
@@ -15181,7 +15178,7 @@
         <v>171</v>
       </c>
       <c r="D346" s="6" t="s">
-        <v>849</v>
+        <v>842</v>
       </c>
       <c r="E346" s="12">
         <v>5</v>
@@ -15207,7 +15204,7 @@
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A347" s="8" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="B347" s="9">
         <v>45077</v>
@@ -15216,7 +15213,7 @@
         <v>171</v>
       </c>
       <c r="D347" s="10" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="E347" s="13">
         <v>5</v>
@@ -15242,7 +15239,7 @@
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A348" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B348" s="5">
         <v>45077</v>
@@ -15251,7 +15248,7 @@
         <v>165</v>
       </c>
       <c r="D348" s="6" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="E348" s="12">
         <v>5</v>
@@ -15277,7 +15274,7 @@
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A349" s="8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B349" s="9">
         <v>45077</v>
@@ -15286,7 +15283,7 @@
         <v>165</v>
       </c>
       <c r="D349" s="10" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="E349" s="13">
         <v>5</v>
@@ -15312,7 +15309,7 @@
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A350" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B350" s="5">
         <v>45077</v>
@@ -15321,7 +15318,7 @@
         <v>165</v>
       </c>
       <c r="D350" s="6" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="E350" s="12">
         <v>5</v>
@@ -15347,7 +15344,7 @@
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A351" s="8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B351" s="9">
         <v>45077</v>
@@ -15356,7 +15353,7 @@
         <v>165</v>
       </c>
       <c r="D351" s="10" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="E351" s="13">
         <v>5</v>
@@ -15382,7 +15379,7 @@
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A352" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B352" s="5">
         <v>45077</v>
@@ -15391,7 +15388,7 @@
         <v>165</v>
       </c>
       <c r="D352" s="6" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="E352" s="12">
         <v>5</v>
@@ -15417,7 +15414,7 @@
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A353" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B353" s="9">
         <v>45077</v>
@@ -15426,7 +15423,7 @@
         <v>165</v>
       </c>
       <c r="D353" s="10" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="E353" s="13">
         <v>5</v>
@@ -15452,7 +15449,7 @@
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A354" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B354" s="5">
         <v>45077</v>
@@ -15461,7 +15458,7 @@
         <v>165</v>
       </c>
       <c r="D354" s="6" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="E354" s="12">
         <v>5</v>
@@ -15487,7 +15484,7 @@
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A355" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B355" s="9">
         <v>45077</v>
@@ -15496,7 +15493,7 @@
         <v>165</v>
       </c>
       <c r="D355" s="10" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="E355" s="13">
         <v>5</v>
@@ -15522,7 +15519,7 @@
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A356" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B356" s="5">
         <v>45077</v>
@@ -15531,7 +15528,7 @@
         <v>165</v>
       </c>
       <c r="D356" s="6" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="E356" s="12">
         <v>5</v>
@@ -15557,7 +15554,7 @@
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A357" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B357" s="9">
         <v>45077</v>
@@ -15566,7 +15563,7 @@
         <v>165</v>
       </c>
       <c r="D357" s="10" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="E357" s="13">
         <v>5</v>
@@ -15592,7 +15589,7 @@
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A358" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B358" s="5">
         <v>45077</v>
@@ -15601,7 +15598,7 @@
         <v>165</v>
       </c>
       <c r="D358" s="6" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="E358" s="12">
         <v>5</v>
@@ -15627,7 +15624,7 @@
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A359" s="8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B359" s="9">
         <v>45077</v>
@@ -15636,7 +15633,7 @@
         <v>165</v>
       </c>
       <c r="D359" s="10" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="E359" s="13">
         <v>5</v>
@@ -15662,16 +15659,16 @@
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A360" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="B360" s="5">
+        <v>45077</v>
+      </c>
+      <c r="C360" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="D360" s="6" t="s">
         <v>410</v>
-      </c>
-      <c r="B360" s="5">
-        <v>45077</v>
-      </c>
-      <c r="C360" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="D360" s="6" t="s">
-        <v>411</v>
       </c>
       <c r="E360" s="12">
         <v>5</v>
@@ -15697,16 +15694,16 @@
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A361" s="8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B361" s="9">
         <v>45077</v>
       </c>
       <c r="C361" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D361" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E361" s="13">
         <v>5</v>
@@ -15732,16 +15729,16 @@
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A362" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B362" s="5">
         <v>45077</v>
       </c>
       <c r="C362" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D362" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E362" s="12">
         <v>5</v>
@@ -15767,16 +15764,16 @@
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A363" s="8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B363" s="9">
         <v>45077</v>
       </c>
       <c r="C363" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D363" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E363" s="13">
         <v>5</v>
@@ -15802,16 +15799,16 @@
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A364" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B364" s="5">
         <v>45077</v>
       </c>
       <c r="C364" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D364" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E364" s="12">
         <v>5</v>
@@ -15837,16 +15834,16 @@
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A365" s="8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B365" s="9">
         <v>45077</v>
       </c>
       <c r="C365" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D365" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E365" s="13">
         <v>5</v>
@@ -15872,16 +15869,16 @@
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A366" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B366" s="5">
         <v>45077</v>
       </c>
       <c r="C366" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D366" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E366" s="12">
         <v>5</v>
@@ -15907,16 +15904,16 @@
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A367" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="B367" s="9">
+        <v>45077</v>
+      </c>
+      <c r="C367" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="D367" s="10" t="s">
         <v>418</v>
-      </c>
-      <c r="B367" s="9">
-        <v>45077</v>
-      </c>
-      <c r="C367" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="D367" s="10" t="s">
-        <v>419</v>
       </c>
       <c r="E367" s="13">
         <v>5</v>
@@ -15942,16 +15939,16 @@
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A368" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B368" s="5">
         <v>45077</v>
       </c>
       <c r="C368" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D368" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E368" s="12">
         <v>5</v>
@@ -15977,16 +15974,16 @@
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A369" s="8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B369" s="9">
         <v>45077</v>
       </c>
       <c r="C369" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D369" s="10" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E369" s="13">
         <v>5</v>
@@ -16012,16 +16009,16 @@
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A370" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B370" s="5">
         <v>45077</v>
       </c>
       <c r="C370" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D370" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E370" s="12">
         <v>5</v>
@@ -16047,16 +16044,16 @@
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A371" s="8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B371" s="9">
         <v>45077</v>
       </c>
       <c r="C371" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D371" s="10" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E371" s="13">
         <v>5</v>
@@ -16082,16 +16079,16 @@
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A372" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B372" s="5">
         <v>45077</v>
       </c>
       <c r="C372" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D372" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E372" s="12">
         <v>5</v>
@@ -16117,16 +16114,16 @@
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A373" s="8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B373" s="9">
         <v>45077</v>
       </c>
       <c r="C373" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D373" s="10" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E373" s="13">
         <v>5</v>
@@ -16152,16 +16149,16 @@
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A374" s="4" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="B374" s="5">
         <v>45077</v>
       </c>
       <c r="C374" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D374" s="6" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="E374" s="12">
         <v>5</v>
@@ -16187,16 +16184,16 @@
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A375" s="8" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="B375" s="9">
         <v>45077</v>
       </c>
       <c r="C375" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D375" s="10" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="E375" s="13">
         <v>5</v>
@@ -16222,16 +16219,16 @@
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A376" s="4" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="B376" s="5">
         <v>45077</v>
       </c>
       <c r="C376" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D376" s="6" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="E376" s="12">
         <v>5</v>
@@ -16257,16 +16254,16 @@
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A377" s="8" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="B377" s="9">
         <v>45077</v>
       </c>
       <c r="C377" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D377" s="10" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="E377" s="13">
         <v>5</v>
@@ -16292,16 +16289,16 @@
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A378" s="4" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="B378" s="5">
         <v>45077</v>
       </c>
       <c r="C378" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D378" s="6" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="E378" s="12">
         <v>5</v>
@@ -16327,16 +16324,16 @@
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A379" s="8" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="B379" s="9">
         <v>45077</v>
       </c>
       <c r="C379" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D379" s="10" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="E379" s="13">
         <v>5</v>
@@ -16362,16 +16359,16 @@
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A380" s="4" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="B380" s="5">
         <v>45077</v>
       </c>
       <c r="C380" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D380" s="6" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="E380" s="12">
         <v>5</v>
@@ -16397,7 +16394,7 @@
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A381" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B381" s="9">
         <v>45077</v>
@@ -16432,7 +16429,7 @@
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A382" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B382" s="5">
         <v>45077</v>
@@ -16467,7 +16464,7 @@
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A383" s="8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B383" s="9">
         <v>45077</v>
@@ -16502,7 +16499,7 @@
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A384" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B384" s="5">
         <v>45077</v>
@@ -16511,7 +16508,7 @@
         <v>59</v>
       </c>
       <c r="D384" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E384" s="12">
         <v>5</v>
@@ -16537,7 +16534,7 @@
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A385" s="8" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B385" s="9">
         <v>45077</v>
@@ -16572,7 +16569,7 @@
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A386" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B386" s="5">
         <v>45077</v>
@@ -16607,7 +16604,7 @@
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A387" s="8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B387" s="9">
         <v>45077</v>
@@ -16616,7 +16613,7 @@
         <v>59</v>
       </c>
       <c r="D387" s="10" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E387" s="13">
         <v>5</v>
@@ -16642,7 +16639,7 @@
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A388" s="4" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="B388" s="5">
         <v>45077</v>
@@ -16651,7 +16648,7 @@
         <v>59</v>
       </c>
       <c r="D388" s="6" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="E388" s="12">
         <v>5</v>
@@ -16677,7 +16674,7 @@
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A389" s="8" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="B389" s="9">
         <v>45077</v>
@@ -16686,7 +16683,7 @@
         <v>59</v>
       </c>
       <c r="D389" s="10" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="E389" s="13">
         <v>5</v>
@@ -16712,7 +16709,7 @@
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A390" s="4" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="B390" s="5">
         <v>45077</v>
@@ -16721,7 +16718,7 @@
         <v>59</v>
       </c>
       <c r="D390" s="6" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="E390" s="12">
         <v>5</v>
@@ -16747,7 +16744,7 @@
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A391" s="8" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="B391" s="9">
         <v>45077</v>
@@ -16756,7 +16753,7 @@
         <v>59</v>
       </c>
       <c r="D391" s="10" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="E391" s="13">
         <v>5</v>
@@ -16782,7 +16779,7 @@
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A392" s="4" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="B392" s="5">
         <v>45077</v>
@@ -16791,7 +16788,7 @@
         <v>59</v>
       </c>
       <c r="D392" s="6" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="E392" s="12">
         <v>5</v>
@@ -16817,7 +16814,7 @@
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A393" s="8" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="B393" s="9">
         <v>45077</v>
@@ -16826,7 +16823,7 @@
         <v>59</v>
       </c>
       <c r="D393" s="10" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="E393" s="13">
         <v>5</v>
@@ -16852,7 +16849,7 @@
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A394" s="4" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="B394" s="5">
         <v>45077</v>
@@ -16861,7 +16858,7 @@
         <v>59</v>
       </c>
       <c r="D394" s="6" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="E394" s="12">
         <v>5</v>
@@ -16887,7 +16884,7 @@
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A395" s="8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B395" s="9">
         <v>45077</v>
@@ -16922,7 +16919,7 @@
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A396" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B396" s="5">
         <v>45077</v>
@@ -16957,7 +16954,7 @@
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A397" s="8" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B397" s="9">
         <v>45077</v>
@@ -16992,7 +16989,7 @@
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A398" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B398" s="5">
         <v>45077</v>
@@ -17027,7 +17024,7 @@
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A399" s="8" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B399" s="9">
         <v>45077</v>
@@ -17062,7 +17059,7 @@
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A400" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B400" s="5">
         <v>45077</v>
@@ -17097,7 +17094,7 @@
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A401" s="8" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B401" s="9">
         <v>45077</v>
@@ -17132,7 +17129,7 @@
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A402" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B402" s="5">
         <v>45077</v>
@@ -17167,7 +17164,7 @@
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A403" s="8" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B403" s="9">
         <v>45077</v>
@@ -17202,7 +17199,7 @@
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A404" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B404" s="5">
         <v>45077</v>
@@ -17237,7 +17234,7 @@
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A405" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B405" s="9">
         <v>45077</v>
@@ -17246,7 +17243,7 @@
         <v>51</v>
       </c>
       <c r="D405" s="10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E405" s="13">
         <v>5</v>
@@ -17272,7 +17269,7 @@
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A406" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B406" s="5">
         <v>45077</v>
@@ -17281,7 +17278,7 @@
         <v>51</v>
       </c>
       <c r="D406" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E406" s="12">
         <v>5</v>
@@ -17307,7 +17304,7 @@
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A407" s="8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B407" s="9">
         <v>45077</v>
@@ -17316,7 +17313,7 @@
         <v>51</v>
       </c>
       <c r="D407" s="10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E407" s="13">
         <v>5</v>
@@ -17342,7 +17339,7 @@
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A408" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B408" s="5">
         <v>45077</v>
@@ -17351,7 +17348,7 @@
         <v>51</v>
       </c>
       <c r="D408" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E408" s="12">
         <v>5</v>
@@ -17377,7 +17374,7 @@
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A409" s="8" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B409" s="9">
         <v>45077</v>
@@ -17386,7 +17383,7 @@
         <v>51</v>
       </c>
       <c r="D409" s="10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E409" s="13">
         <v>5</v>
@@ -17412,7 +17409,7 @@
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A410" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B410" s="5">
         <v>45077</v>
@@ -17447,7 +17444,7 @@
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A411" s="8" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B411" s="9">
         <v>45077</v>
@@ -17482,7 +17479,7 @@
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A412" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B412" s="5">
         <v>45077</v>
@@ -17517,16 +17514,16 @@
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A413" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="B413" s="9">
+        <v>45077</v>
+      </c>
+      <c r="C413" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="B413" s="9">
-        <v>45077</v>
-      </c>
-      <c r="C413" s="10" t="s">
+      <c r="D413" s="10" t="s">
         <v>454</v>
-      </c>
-      <c r="D413" s="10" t="s">
-        <v>455</v>
       </c>
       <c r="E413" s="13">
         <v>5</v>
@@ -17552,7 +17549,7 @@
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A414" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B414" s="5">
         <v>45077</v>
@@ -17587,7 +17584,7 @@
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A415" s="8" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B415" s="9">
         <v>45077</v>
@@ -17596,7 +17593,7 @@
         <v>101</v>
       </c>
       <c r="D415" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E415" s="13">
         <v>5</v>
@@ -17622,16 +17619,16 @@
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A416" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B416" s="5">
         <v>45077</v>
       </c>
       <c r="C416" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="D416" s="6" t="s">
         <v>454</v>
-      </c>
-      <c r="D416" s="6" t="s">
-        <v>455</v>
       </c>
       <c r="E416" s="12">
         <v>5</v>
@@ -17657,7 +17654,7 @@
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A417" s="8" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="B417" s="9">
         <v>45077</v>
@@ -17666,7 +17663,7 @@
         <v>101</v>
       </c>
       <c r="D417" s="10" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="E417" s="13">
         <v>5</v>
@@ -17692,7 +17689,7 @@
     </row>
     <row r="418" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A418" s="4" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="B418" s="5">
         <v>45077</v>
@@ -17701,7 +17698,7 @@
         <v>55</v>
       </c>
       <c r="D418" s="6" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="E418" s="12">
         <v>5</v>
@@ -17727,7 +17724,7 @@
     </row>
     <row r="419" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A419" s="8" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="B419" s="9">
         <v>45077</v>
@@ -17736,7 +17733,7 @@
         <v>55</v>
       </c>
       <c r="D419" s="10" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="E419" s="13">
         <v>5</v>
@@ -17762,7 +17759,7 @@
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A420" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B420" s="5">
         <v>45077</v>
@@ -17771,7 +17768,7 @@
         <v>101</v>
       </c>
       <c r="D420" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E420" s="12">
         <v>5</v>
@@ -17797,7 +17794,7 @@
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A421" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B421" s="9">
         <v>45077</v>
@@ -17832,7 +17829,7 @@
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A422" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B422" s="5">
         <v>45077</v>
@@ -17841,7 +17838,7 @@
         <v>101</v>
       </c>
       <c r="D422" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E422" s="12">
         <v>5</v>
@@ -17867,7 +17864,7 @@
     </row>
     <row r="423" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A423" s="8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B423" s="9">
         <v>45077</v>
@@ -17876,7 +17873,7 @@
         <v>101</v>
       </c>
       <c r="D423" s="10" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E423" s="13">
         <v>5</v>
@@ -17902,16 +17899,16 @@
     </row>
     <row r="424" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A424" s="4" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="B424" s="5">
         <v>45077</v>
       </c>
       <c r="C424" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D424" s="6" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="E424" s="12">
         <v>5</v>
@@ -17937,16 +17934,16 @@
     </row>
     <row r="425" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A425" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="B425" s="9">
+        <v>45077</v>
+      </c>
+      <c r="C425" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="D425" s="10" t="s">
         <v>468</v>
-      </c>
-      <c r="B425" s="9">
-        <v>45077</v>
-      </c>
-      <c r="C425" s="10" t="s">
-        <v>467</v>
-      </c>
-      <c r="D425" s="10" t="s">
-        <v>469</v>
       </c>
       <c r="E425" s="13">
         <v>5</v>
@@ -17972,16 +17969,16 @@
     </row>
     <row r="426" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A426" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="B426" s="5">
+        <v>45077</v>
+      </c>
+      <c r="C426" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="D426" s="6" t="s">
         <v>470</v>
-      </c>
-      <c r="B426" s="5">
-        <v>45077</v>
-      </c>
-      <c r="C426" s="6" t="s">
-        <v>467</v>
-      </c>
-      <c r="D426" s="6" t="s">
-        <v>471</v>
       </c>
       <c r="E426" s="12">
         <v>5</v>
@@ -18007,16 +18004,16 @@
     </row>
     <row r="427" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A427" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B427" s="9">
         <v>45077</v>
       </c>
       <c r="C427" s="10" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D427" s="10" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E427" s="13">
         <v>5</v>
@@ -18042,7 +18039,7 @@
     </row>
     <row r="428" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A428" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B428" s="5">
         <v>45077</v>
@@ -18077,7 +18074,7 @@
     </row>
     <row r="429" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A429" s="8" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B429" s="9">
         <v>45077</v>
@@ -18112,7 +18109,7 @@
     </row>
     <row r="430" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A430" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B430" s="5">
         <v>45077</v>
@@ -18147,7 +18144,7 @@
     </row>
     <row r="431" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A431" s="8" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B431" s="9">
         <v>45077</v>
@@ -18182,7 +18179,7 @@
     </row>
     <row r="432" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A432" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B432" s="5">
         <v>45077</v>
@@ -18191,7 +18188,7 @@
         <v>51</v>
       </c>
       <c r="D432" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E432" s="12">
         <v>5</v>
@@ -18217,7 +18214,7 @@
     </row>
     <row r="433" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A433" s="8" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B433" s="9">
         <v>45077</v>
@@ -18252,7 +18249,7 @@
     </row>
     <row r="434" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A434" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B434" s="5">
         <v>45077</v>
@@ -18261,7 +18258,7 @@
         <v>257</v>
       </c>
       <c r="D434" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E434" s="12">
         <v>5</v>
@@ -18287,7 +18284,7 @@
     </row>
     <row r="435" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A435" s="8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B435" s="9">
         <v>45077</v>
@@ -18296,7 +18293,7 @@
         <v>257</v>
       </c>
       <c r="D435" s="10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E435" s="13">
         <v>5</v>
@@ -18322,7 +18319,7 @@
     </row>
     <row r="436" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A436" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B436" s="5">
         <v>45077</v>
@@ -18331,7 +18328,7 @@
         <v>257</v>
       </c>
       <c r="D436" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E436" s="12">
         <v>5</v>
@@ -18357,7 +18354,7 @@
     </row>
     <row r="437" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A437" s="8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B437" s="9">
         <v>45077</v>
@@ -18366,7 +18363,7 @@
         <v>257</v>
       </c>
       <c r="D437" s="10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E437" s="13">
         <v>5</v>
@@ -18392,7 +18389,7 @@
     </row>
     <row r="438" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A438" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B438" s="5">
         <v>45077</v>
@@ -18401,7 +18398,7 @@
         <v>257</v>
       </c>
       <c r="D438" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E438" s="12">
         <v>5</v>
@@ -18427,7 +18424,7 @@
     </row>
     <row r="439" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A439" s="8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B439" s="9">
         <v>45077</v>
@@ -18436,7 +18433,7 @@
         <v>257</v>
       </c>
       <c r="D439" s="10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E439" s="13">
         <v>5</v>
@@ -18462,7 +18459,7 @@
     </row>
     <row r="440" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A440" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B440" s="5">
         <v>45077</v>
@@ -18497,7 +18494,7 @@
     </row>
     <row r="441" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A441" s="8" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="B441" s="9">
         <v>45077</v>
@@ -18506,7 +18503,7 @@
         <v>55</v>
       </c>
       <c r="D441" s="10" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="E441" s="13">
         <v>5</v>
@@ -18532,7 +18529,7 @@
     </row>
     <row r="442" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A442" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B442" s="5">
         <v>45077</v>
@@ -18541,7 +18538,7 @@
         <v>101</v>
       </c>
       <c r="D442" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E442" s="12">
         <v>5</v>
@@ -18567,16 +18564,16 @@
     </row>
     <row r="443" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A443" s="8" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B443" s="9">
         <v>45077</v>
       </c>
       <c r="C443" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="D443" s="10" t="s">
         <v>454</v>
-      </c>
-      <c r="D443" s="10" t="s">
-        <v>455</v>
       </c>
       <c r="E443" s="13">
         <v>5</v>
@@ -18602,7 +18599,7 @@
     </row>
     <row r="444" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A444" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B444" s="5">
         <v>45077</v>
@@ -18637,7 +18634,7 @@
     </row>
     <row r="445" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A445" s="8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B445" s="9">
         <v>45077</v>
@@ -18672,7 +18669,7 @@
     </row>
     <row r="446" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A446" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B446" s="5">
         <v>45077</v>
@@ -18707,7 +18704,7 @@
     </row>
     <row r="447" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A447" s="8" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="B447" s="9">
         <v>45077</v>
@@ -18716,7 +18713,7 @@
         <v>11</v>
       </c>
       <c r="D447" s="10" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E447" s="13">
         <v>5</v>
@@ -18742,7 +18739,7 @@
     </row>
     <row r="448" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A448" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B448" s="5">
         <v>45077</v>
@@ -18777,7 +18774,7 @@
     </row>
     <row r="449" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A449" s="8" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B449" s="9">
         <v>45077</v>
@@ -18812,7 +18809,7 @@
     </row>
     <row r="450" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A450" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B450" s="5">
         <v>45077</v>
@@ -18847,7 +18844,7 @@
     </row>
     <row r="451" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A451" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B451" s="9">
         <v>45077</v>
@@ -18882,7 +18879,7 @@
     </row>
     <row r="452" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A452" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B452" s="5">
         <v>45077</v>
@@ -18891,7 +18888,7 @@
         <v>11</v>
       </c>
       <c r="D452" s="6" t="s">
-        <v>830</v>
+        <v>823</v>
       </c>
       <c r="E452" s="12">
         <v>5</v>
@@ -18917,7 +18914,7 @@
     </row>
     <row r="453" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A453" s="8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B453" s="9">
         <v>45077</v>
@@ -18952,7 +18949,7 @@
     </row>
     <row r="454" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A454" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B454" s="5">
         <v>45077</v>
@@ -18987,7 +18984,7 @@
     </row>
     <row r="455" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A455" s="8" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B455" s="9">
         <v>45077</v>
@@ -19022,7 +19019,7 @@
     </row>
     <row r="456" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A456" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B456" s="5">
         <v>45077</v>
@@ -19057,7 +19054,7 @@
     </row>
     <row r="457" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A457" s="8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B457" s="9">
         <v>45077</v>
@@ -19092,7 +19089,7 @@
     </row>
     <row r="458" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A458" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B458" s="5">
         <v>45077</v>
@@ -19127,7 +19124,7 @@
     </row>
     <row r="459" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A459" s="8" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B459" s="9">
         <v>45077</v>
@@ -19162,7 +19159,7 @@
     </row>
     <row r="460" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A460" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B460" s="5">
         <v>45077</v>
@@ -19171,7 +19168,7 @@
         <v>11</v>
       </c>
       <c r="D460" s="6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E460" s="12">
         <v>5</v>
@@ -19197,7 +19194,7 @@
     </row>
     <row r="461" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A461" s="8" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B461" s="9">
         <v>45077</v>
@@ -19206,7 +19203,7 @@
         <v>11</v>
       </c>
       <c r="D461" s="10" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E461" s="13">
         <v>5</v>
@@ -19232,7 +19229,7 @@
     </row>
     <row r="462" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A462" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B462" s="5">
         <v>45077</v>
@@ -19241,7 +19238,7 @@
         <v>11</v>
       </c>
       <c r="D462" s="6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E462" s="12">
         <v>5</v>
@@ -19267,7 +19264,7 @@
     </row>
     <row r="463" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A463" s="8" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B463" s="9">
         <v>45077</v>
@@ -19276,7 +19273,7 @@
         <v>11</v>
       </c>
       <c r="D463" s="10" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E463" s="13">
         <v>5</v>
@@ -19302,7 +19299,7 @@
     </row>
     <row r="464" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A464" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B464" s="5">
         <v>45077</v>
@@ -19311,7 +19308,7 @@
         <v>11</v>
       </c>
       <c r="D464" s="6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E464" s="12">
         <v>5</v>
@@ -19337,7 +19334,7 @@
     </row>
     <row r="465" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A465" s="8" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B465" s="9">
         <v>45077</v>
@@ -19346,7 +19343,7 @@
         <v>11</v>
       </c>
       <c r="D465" s="10" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E465" s="13">
         <v>5</v>
@@ -19372,7 +19369,7 @@
     </row>
     <row r="466" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A466" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B466" s="5">
         <v>45077</v>
@@ -19381,7 +19378,7 @@
         <v>11</v>
       </c>
       <c r="D466" s="6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E466" s="12">
         <v>5</v>
@@ -19407,7 +19404,7 @@
     </row>
     <row r="467" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A467" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B467" s="9">
         <v>45077</v>
@@ -19416,7 +19413,7 @@
         <v>11</v>
       </c>
       <c r="D467" s="10" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E467" s="13">
         <v>5</v>
@@ -19442,7 +19439,7 @@
     </row>
     <row r="468" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A468" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B468" s="5">
         <v>45077</v>
@@ -19451,7 +19448,7 @@
         <v>11</v>
       </c>
       <c r="D468" s="6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E468" s="12">
         <v>5</v>
@@ -19477,7 +19474,7 @@
     </row>
     <row r="469" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A469" s="8" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B469" s="9">
         <v>45077</v>
@@ -19486,7 +19483,7 @@
         <v>11</v>
       </c>
       <c r="D469" s="10" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E469" s="13">
         <v>5</v>
@@ -19512,7 +19509,7 @@
     </row>
     <row r="470" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A470" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B470" s="5">
         <v>45077</v>
@@ -19521,7 +19518,7 @@
         <v>11</v>
       </c>
       <c r="D470" s="6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E470" s="12">
         <v>5</v>
@@ -19547,7 +19544,7 @@
     </row>
     <row r="471" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A471" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B471" s="9">
         <v>45077</v>
@@ -19556,7 +19553,7 @@
         <v>11</v>
       </c>
       <c r="D471" s="10" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E471" s="13">
         <v>5</v>
@@ -19582,7 +19579,7 @@
     </row>
     <row r="472" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A472" s="4" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B472" s="5">
         <v>45077</v>
@@ -19591,7 +19588,7 @@
         <v>11</v>
       </c>
       <c r="D472" s="6" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E472" s="12">
         <v>5</v>
@@ -19617,7 +19614,7 @@
     </row>
     <row r="473" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A473" s="8" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B473" s="9">
         <v>45077</v>
@@ -19626,7 +19623,7 @@
         <v>11</v>
       </c>
       <c r="D473" s="10" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E473" s="13">
         <v>5</v>
@@ -19652,7 +19649,7 @@
     </row>
     <row r="474" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A474" s="4" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B474" s="5">
         <v>45077</v>
@@ -19661,7 +19658,7 @@
         <v>11</v>
       </c>
       <c r="D474" s="6" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E474" s="12">
         <v>5</v>
@@ -19687,7 +19684,7 @@
     </row>
     <row r="475" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A475" s="8" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B475" s="9">
         <v>45077</v>
@@ -19696,7 +19693,7 @@
         <v>11</v>
       </c>
       <c r="D475" s="10" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E475" s="13">
         <v>5</v>
@@ -19722,7 +19719,7 @@
     </row>
     <row r="476" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A476" s="4" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B476" s="5">
         <v>45077</v>
@@ -19731,7 +19728,7 @@
         <v>11</v>
       </c>
       <c r="D476" s="6" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E476" s="12">
         <v>5</v>
@@ -19757,7 +19754,7 @@
     </row>
     <row r="477" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A477" s="8" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B477" s="9">
         <v>45077</v>
@@ -19766,7 +19763,7 @@
         <v>11</v>
       </c>
       <c r="D477" s="10" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E477" s="13">
         <v>5</v>
@@ -19792,7 +19789,7 @@
     </row>
     <row r="478" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A478" s="4" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B478" s="5">
         <v>45077</v>
@@ -19801,7 +19798,7 @@
         <v>11</v>
       </c>
       <c r="D478" s="6" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E478" s="12">
         <v>5</v>
@@ -19827,7 +19824,7 @@
     </row>
     <row r="479" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A479" s="8" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B479" s="9">
         <v>45077</v>
@@ -19836,7 +19833,7 @@
         <v>11</v>
       </c>
       <c r="D479" s="10" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E479" s="13">
         <v>5</v>
@@ -19862,7 +19859,7 @@
     </row>
     <row r="480" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A480" s="4" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B480" s="5">
         <v>45077</v>
@@ -19871,7 +19868,7 @@
         <v>11</v>
       </c>
       <c r="D480" s="6" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E480" s="12">
         <v>5</v>
@@ -19897,7 +19894,7 @@
     </row>
     <row r="481" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A481" s="8" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B481" s="9">
         <v>45077</v>
@@ -19906,7 +19903,7 @@
         <v>11</v>
       </c>
       <c r="D481" s="10" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E481" s="13">
         <v>5</v>
@@ -19932,7 +19929,7 @@
     </row>
     <row r="482" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A482" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B482" s="5">
         <v>45077</v>
@@ -19941,7 +19938,7 @@
         <v>11</v>
       </c>
       <c r="D482" s="6" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
       <c r="E482" s="12">
         <v>5</v>
@@ -19967,7 +19964,7 @@
     </row>
     <row r="483" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A483" s="8" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B483" s="9">
         <v>45077</v>
@@ -19976,7 +19973,7 @@
         <v>11</v>
       </c>
       <c r="D483" s="10" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
       <c r="E483" s="13">
         <v>5</v>
@@ -20002,7 +19999,7 @@
     </row>
     <row r="484" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A484" s="4" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B484" s="5">
         <v>45077</v>
@@ -20011,7 +20008,7 @@
         <v>11</v>
       </c>
       <c r="D484" s="6" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
       <c r="E484" s="12">
         <v>5</v>
@@ -20037,7 +20034,7 @@
     </row>
     <row r="485" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A485" s="8" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B485" s="9">
         <v>45077</v>
@@ -20046,7 +20043,7 @@
         <v>11</v>
       </c>
       <c r="D485" s="10" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
       <c r="E485" s="13">
         <v>5</v>
@@ -20072,7 +20069,7 @@
     </row>
     <row r="486" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A486" s="4" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B486" s="5">
         <v>45077</v>
@@ -20081,7 +20078,7 @@
         <v>11</v>
       </c>
       <c r="D486" s="6" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
       <c r="E486" s="12">
         <v>5</v>
@@ -20107,7 +20104,7 @@
     </row>
     <row r="487" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A487" s="8" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B487" s="9">
         <v>45077</v>
@@ -20116,7 +20113,7 @@
         <v>11</v>
       </c>
       <c r="D487" s="10" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
       <c r="E487" s="13">
         <v>5</v>
@@ -20142,7 +20139,7 @@
     </row>
     <row r="488" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A488" s="4" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B488" s="5">
         <v>45077</v>
@@ -20151,7 +20148,7 @@
         <v>11</v>
       </c>
       <c r="D488" s="6" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
       <c r="E488" s="12">
         <v>5</v>
@@ -20177,7 +20174,7 @@
     </row>
     <row r="489" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A489" s="8" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B489" s="9">
         <v>45077</v>
@@ -20186,7 +20183,7 @@
         <v>11</v>
       </c>
       <c r="D489" s="10" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
       <c r="E489" s="13">
         <v>5</v>
@@ -20212,7 +20209,7 @@
     </row>
     <row r="490" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A490" s="4" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B490" s="5">
         <v>45077</v>
@@ -20221,7 +20218,7 @@
         <v>11</v>
       </c>
       <c r="D490" s="6" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
       <c r="E490" s="12">
         <v>5</v>
@@ -20247,7 +20244,7 @@
     </row>
     <row r="491" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A491" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B491" s="9">
         <v>45077</v>
@@ -20256,7 +20253,7 @@
         <v>11</v>
       </c>
       <c r="D491" s="10" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
       <c r="E491" s="13">
         <v>5</v>
@@ -20282,7 +20279,7 @@
     </row>
     <row r="492" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A492" s="4" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B492" s="5">
         <v>45077</v>
@@ -20291,7 +20288,7 @@
         <v>11</v>
       </c>
       <c r="D492" s="6" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
       <c r="E492" s="12">
         <v>5</v>
@@ -20317,7 +20314,7 @@
     </row>
     <row r="493" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A493" s="8" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B493" s="9">
         <v>45077</v>
@@ -20326,7 +20323,7 @@
         <v>11</v>
       </c>
       <c r="D493" s="10" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E493" s="13">
         <v>5</v>
@@ -20352,7 +20349,7 @@
     </row>
     <row r="494" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A494" s="4" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B494" s="5">
         <v>45077</v>
@@ -20361,7 +20358,7 @@
         <v>11</v>
       </c>
       <c r="D494" s="6" t="s">
-        <v>519</v>
+        <v>865</v>
       </c>
       <c r="E494" s="12">
         <v>5</v>
@@ -20387,7 +20384,7 @@
     </row>
     <row r="495" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A495" s="8" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B495" s="9">
         <v>45077</v>
@@ -20396,7 +20393,7 @@
         <v>11</v>
       </c>
       <c r="D495" s="10" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E495" s="13">
         <v>5</v>
@@ -20422,7 +20419,7 @@
     </row>
     <row r="496" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A496" s="4" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="B496" s="5">
         <v>45077</v>
@@ -20431,7 +20428,7 @@
         <v>11</v>
       </c>
       <c r="D496" s="6" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="E496" s="12">
         <v>5</v>
@@ -20457,7 +20454,7 @@
     </row>
     <row r="497" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A497" s="8" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B497" s="9">
         <v>45077</v>
@@ -20492,7 +20489,7 @@
     </row>
     <row r="498" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A498" s="4" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="B498" s="5">
         <v>45077</v>
@@ -20501,7 +20498,7 @@
         <v>11</v>
       </c>
       <c r="D498" s="6" t="s">
-        <v>630</v>
+        <v>866</v>
       </c>
       <c r="E498" s="12">
         <v>5</v>
@@ -20527,7 +20524,7 @@
     </row>
     <row r="499" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A499" s="8" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B499" s="9">
         <v>45077</v>
@@ -20536,7 +20533,7 @@
         <v>71</v>
       </c>
       <c r="D499" s="10" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="E499" s="13">
         <v>5</v>
@@ -20562,13 +20559,13 @@
     </row>
     <row r="500" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A500" s="4" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="B500" s="5">
         <v>45077</v>
       </c>
       <c r="C500" s="6" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="D500" s="6" t="s">
         <v>68</v>
@@ -20597,7 +20594,7 @@
     </row>
     <row r="501" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A501" s="8" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B501" s="9">
         <v>45077</v>
@@ -20606,7 +20603,7 @@
         <v>84</v>
       </c>
       <c r="D501" s="10" t="s">
-        <v>865</v>
+        <v>858</v>
       </c>
       <c r="E501" s="13">
         <v>5</v>
@@ -20632,16 +20629,16 @@
     </row>
     <row r="502" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A502" s="4" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B502" s="5">
         <v>45077</v>
       </c>
       <c r="C502" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D502" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E502" s="12">
         <v>5</v>
@@ -20667,7 +20664,7 @@
     </row>
     <row r="503" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A503" s="8" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B503" s="9">
         <v>45077</v>
@@ -20702,7 +20699,7 @@
     </row>
     <row r="504" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A504" s="4" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="B504" s="5">
         <v>45077</v>
@@ -20711,7 +20708,7 @@
         <v>89</v>
       </c>
       <c r="D504" s="6" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="E504" s="12">
         <v>5</v>
@@ -20737,16 +20734,16 @@
     </row>
     <row r="505" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A505" s="8" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B505" s="9">
         <v>45077</v>
       </c>
       <c r="C505" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D505" s="10" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E505" s="13">
         <v>5</v>
@@ -20772,16 +20769,16 @@
     </row>
     <row r="506" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A506" s="4" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B506" s="5">
         <v>45077</v>
       </c>
       <c r="C506" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D506" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E506" s="12">
         <v>5</v>
@@ -20807,7 +20804,7 @@
     </row>
     <row r="507" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A507" s="8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B507" s="9">
         <v>45077</v>
@@ -20842,7 +20839,7 @@
     </row>
     <row r="508" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A508" s="4" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B508" s="5">
         <v>45077</v>
@@ -20877,16 +20874,16 @@
     </row>
     <row r="509" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A509" s="8" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B509" s="9">
         <v>45077</v>
       </c>
       <c r="C509" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="D509" s="10" t="s">
         <v>454</v>
-      </c>
-      <c r="D509" s="10" t="s">
-        <v>455</v>
       </c>
       <c r="E509" s="13">
         <v>5</v>
@@ -20912,7 +20909,7 @@
     </row>
     <row r="510" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A510" s="4" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B510" s="5">
         <v>45077</v>
@@ -20921,7 +20918,7 @@
         <v>101</v>
       </c>
       <c r="D510" s="6" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E510" s="12">
         <v>5</v>
@@ -20947,7 +20944,7 @@
     </row>
     <row r="511" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A511" s="8" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B511" s="9">
         <v>45077</v>
@@ -20982,7 +20979,7 @@
     </row>
     <row r="512" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A512" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B512" s="5">
         <v>45077</v>
@@ -20991,7 +20988,7 @@
         <v>257</v>
       </c>
       <c r="D512" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E512" s="12">
         <v>5</v>
@@ -21017,16 +21014,16 @@
     </row>
     <row r="513" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A513" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="B513" s="9">
         <v>45077</v>
       </c>
       <c r="C513" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D513" s="10" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="E513" s="13">
         <v>5</v>
@@ -21052,7 +21049,7 @@
     </row>
     <row r="514" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A514" s="4" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B514" s="5">
         <v>45077</v>
@@ -21061,7 +21058,7 @@
         <v>165</v>
       </c>
       <c r="D514" s="6" t="s">
-        <v>850</v>
+        <v>843</v>
       </c>
       <c r="E514" s="12">
         <v>5</v>
@@ -21087,7 +21084,7 @@
     </row>
     <row r="515" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A515" s="8" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="B515" s="9">
         <v>45077</v>
@@ -21096,7 +21093,7 @@
         <v>171</v>
       </c>
       <c r="D515" s="10" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="E515" s="13">
         <v>5</v>
@@ -21122,7 +21119,7 @@
     </row>
     <row r="516" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A516" s="4" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="B516" s="5">
         <v>45077</v>
@@ -21131,7 +21128,7 @@
         <v>171</v>
       </c>
       <c r="D516" s="6" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="E516" s="12">
         <v>5</v>
@@ -21157,7 +21154,7 @@
     </row>
     <row r="517" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A517" s="8" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="B517" s="9">
         <v>45077</v>
@@ -21166,7 +21163,7 @@
         <v>171</v>
       </c>
       <c r="D517" s="10" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="E517" s="13">
         <v>5</v>
@@ -21192,16 +21189,16 @@
     </row>
     <row r="518" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A518" s="4" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B518" s="5">
         <v>45077</v>
       </c>
       <c r="C518" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D518" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E518" s="12">
         <v>5</v>
@@ -21227,16 +21224,16 @@
     </row>
     <row r="519" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A519" s="8" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B519" s="9">
         <v>45077</v>
       </c>
       <c r="C519" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D519" s="10" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E519" s="13">
         <v>5</v>
@@ -21262,7 +21259,7 @@
     </row>
     <row r="520" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A520" s="4" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B520" s="5">
         <v>45077</v>
@@ -21297,7 +21294,7 @@
     </row>
     <row r="521" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A521" s="8" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B521" s="9">
         <v>45077</v>
@@ -21306,7 +21303,7 @@
         <v>84</v>
       </c>
       <c r="D521" s="10" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="E521" s="13">
         <v>5</v>
@@ -21332,16 +21329,16 @@
     </row>
     <row r="522" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A522" s="4" t="s">
-        <v>829</v>
+        <v>822</v>
       </c>
       <c r="B522" s="5">
         <v>45077</v>
       </c>
       <c r="C522" s="6" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="D522" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E522" s="12">
         <v>5</v>
@@ -21367,7 +21364,7 @@
     </row>
     <row r="523" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A523" s="8" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="B523" s="9">
         <v>45077</v>
@@ -21376,7 +21373,7 @@
         <v>89</v>
       </c>
       <c r="D523" s="10" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="E523" s="13">
         <v>5</v>
@@ -21402,7 +21399,7 @@
     </row>
     <row r="524" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A524" s="4" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="B524" s="5">
         <v>45077</v>
@@ -21411,7 +21408,7 @@
         <v>89</v>
       </c>
       <c r="D524" s="6" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="E524" s="12">
         <v>5</v>
@@ -21437,16 +21434,16 @@
     </row>
     <row r="525" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A525" s="8" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B525" s="9">
         <v>45077</v>
       </c>
       <c r="C525" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="D525" s="10" t="s">
         <v>454</v>
-      </c>
-      <c r="D525" s="10" t="s">
-        <v>455</v>
       </c>
       <c r="E525" s="13">
         <v>5</v>
@@ -21472,7 +21469,7 @@
     </row>
     <row r="526" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A526" s="4" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B526" s="5">
         <v>45077</v>
@@ -21507,16 +21504,16 @@
     </row>
     <row r="527" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A527" s="8" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B527" s="9">
         <v>45077</v>
       </c>
       <c r="C527" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D527" s="10" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E527" s="13">
         <v>5</v>
@@ -21542,7 +21539,7 @@
     </row>
     <row r="528" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A528" s="4" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B528" s="5">
         <v>45077</v>
@@ -21551,7 +21548,7 @@
         <v>11</v>
       </c>
       <c r="D528" s="6" t="s">
-        <v>830</v>
+        <v>823</v>
       </c>
       <c r="E528" s="12">
         <v>5</v>
@@ -21577,7 +21574,7 @@
     </row>
     <row r="529" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A529" s="8" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
       <c r="B529" s="9">
         <v>45077</v>
@@ -21586,7 +21583,7 @@
         <v>11</v>
       </c>
       <c r="D529" s="10" t="s">
-        <v>639</v>
+        <v>868</v>
       </c>
       <c r="E529" s="13">
         <v>5</v>
@@ -21612,7 +21609,7 @@
     </row>
     <row r="530" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A530" s="4" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="B530" s="5">
         <v>45077</v>
@@ -21621,7 +21618,7 @@
         <v>11</v>
       </c>
       <c r="D530" s="6" t="s">
-        <v>639</v>
+        <v>868</v>
       </c>
       <c r="E530" s="12">
         <v>5</v>
@@ -21647,7 +21644,7 @@
     </row>
     <row r="531" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A531" s="8" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B531" s="9">
         <v>45077</v>
@@ -21682,7 +21679,7 @@
     </row>
     <row r="532" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A532" s="4" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B532" s="5">
         <v>45077</v>
@@ -21717,7 +21714,7 @@
     </row>
     <row r="533" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A533" s="8" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="B533" s="9">
         <v>45077</v>
@@ -21726,7 +21723,7 @@
         <v>11</v>
       </c>
       <c r="D533" s="10" t="s">
-        <v>633</v>
+        <v>867</v>
       </c>
       <c r="E533" s="13">
         <v>5</v>
@@ -21752,7 +21749,7 @@
     </row>
     <row r="534" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A534" s="4" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B534" s="5">
         <v>45077</v>
@@ -21761,7 +21758,7 @@
         <v>11</v>
       </c>
       <c r="D534" s="6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E534" s="12">
         <v>5</v>
@@ -21787,7 +21784,7 @@
     </row>
     <row r="535" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A535" s="8" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B535" s="9">
         <v>45077</v>
@@ -21796,7 +21793,7 @@
         <v>101</v>
       </c>
       <c r="D535" s="10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E535" s="13">
         <v>5</v>
@@ -21822,7 +21819,7 @@
     </row>
     <row r="536" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A536" s="4" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="B536" s="5">
         <v>45077</v>
@@ -21831,7 +21828,7 @@
         <v>101</v>
       </c>
       <c r="D536" s="6" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="E536" s="12">
         <v>5</v>
@@ -21857,7 +21854,7 @@
     </row>
     <row r="537" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A537" s="8" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="B537" s="9">
         <v>45077</v>
@@ -21866,7 +21863,7 @@
         <v>171</v>
       </c>
       <c r="D537" s="10" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="E537" s="13">
         <v>5</v>
@@ -21892,16 +21889,16 @@
     </row>
     <row r="538" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A538" s="4" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="B538" s="5">
         <v>45077</v>
       </c>
       <c r="C538" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D538" s="6" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="E538" s="12">
         <v>5</v>
@@ -21927,16 +21924,16 @@
     </row>
     <row r="539" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A539" s="8" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B539" s="9">
         <v>45077</v>
       </c>
       <c r="C539" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D539" s="10" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E539" s="13">
         <v>5</v>
@@ -21962,7 +21959,7 @@
     </row>
     <row r="540" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A540" s="4" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B540" s="5">
         <v>45077</v>
@@ -21971,7 +21968,7 @@
         <v>92</v>
       </c>
       <c r="D540" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E540" s="12">
         <v>5</v>
@@ -21997,7 +21994,7 @@
     </row>
     <row r="541" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A541" s="8" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="B541" s="9">
         <v>45077</v>
@@ -22006,7 +22003,7 @@
         <v>89</v>
       </c>
       <c r="D541" s="10" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="E541" s="13">
         <v>5</v>
@@ -22032,16 +22029,16 @@
     </row>
     <row r="542" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A542" s="4" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B542" s="5">
         <v>45077</v>
       </c>
       <c r="C542" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D542" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E542" s="12">
         <v>5</v>
@@ -22067,7 +22064,7 @@
     </row>
     <row r="543" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A543" s="8" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B543" s="9">
         <v>45077</v>
@@ -22076,7 +22073,7 @@
         <v>165</v>
       </c>
       <c r="D543" s="10" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="E543" s="13">
         <v>5</v>
@@ -22102,7 +22099,7 @@
     </row>
     <row r="544" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A544" s="4" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="B544" s="5">
         <v>45077</v>
@@ -22111,7 +22108,7 @@
         <v>59</v>
       </c>
       <c r="D544" s="6" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="E544" s="12">
         <v>5</v>
@@ -22137,7 +22134,7 @@
     </row>
     <row r="545" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A545" s="8" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B545" s="9">
         <v>45077</v>
@@ -22146,7 +22143,7 @@
         <v>101</v>
       </c>
       <c r="D545" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E545" s="13">
         <v>5</v>
@@ -22172,16 +22169,16 @@
     </row>
     <row r="546" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A546" s="4" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B546" s="5">
         <v>45077</v>
       </c>
       <c r="C546" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="D546" s="6" t="s">
         <v>454</v>
-      </c>
-      <c r="D546" s="6" t="s">
-        <v>455</v>
       </c>
       <c r="E546" s="12">
         <v>5</v>
@@ -22207,7 +22204,7 @@
     </row>
     <row r="547" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A547" s="8" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B547" s="9">
         <v>45077</v>
@@ -22216,7 +22213,7 @@
         <v>84</v>
       </c>
       <c r="D547" s="10" t="s">
-        <v>853</v>
+        <v>846</v>
       </c>
       <c r="E547" s="13">
         <v>5</v>
@@ -22242,16 +22239,16 @@
     </row>
     <row r="548" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A548" s="4" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B548" s="5">
         <v>45077</v>
       </c>
       <c r="C548" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D548" s="6" t="s">
-        <v>848</v>
+        <v>841</v>
       </c>
       <c r="E548" s="12">
         <v>5</v>
@@ -22277,7 +22274,7 @@
     </row>
     <row r="549" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A549" s="8" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B549" s="9">
         <v>45077</v>
@@ -22286,7 +22283,7 @@
         <v>168</v>
       </c>
       <c r="D549" s="10" t="s">
-        <v>866</v>
+        <v>859</v>
       </c>
       <c r="E549" s="13">
         <v>5</v>
@@ -22312,7 +22309,7 @@
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A550" s="4" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B550" s="5">
         <v>45077</v>
@@ -22321,7 +22318,7 @@
         <v>168</v>
       </c>
       <c r="D550" s="6" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="E550" s="12">
         <v>5</v>
@@ -22347,7 +22344,7 @@
     </row>
     <row r="551" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A551" s="8" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B551" s="9">
         <v>45077</v>
@@ -22382,7 +22379,7 @@
     </row>
     <row r="552" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A552" s="4" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B552" s="5">
         <v>45077</v>
@@ -22417,7 +22414,7 @@
     </row>
     <row r="553" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A553" s="8" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="B553" s="9">
         <v>45077</v>
@@ -22426,7 +22423,7 @@
         <v>71</v>
       </c>
       <c r="D553" s="10" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
       <c r="E553" s="13">
         <v>5</v>
@@ -22452,7 +22449,7 @@
     </row>
     <row r="554" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A554" s="4" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
       <c r="B554" s="5">
         <v>45077</v>
@@ -22461,7 +22458,7 @@
         <v>71</v>
       </c>
       <c r="D554" s="6" t="s">
-        <v>784</v>
+        <v>777</v>
       </c>
       <c r="E554" s="12">
         <v>5</v>
@@ -22487,7 +22484,7 @@
     </row>
     <row r="555" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A555" s="8" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
       <c r="B555" s="9">
         <v>45077</v>
@@ -22496,7 +22493,7 @@
         <v>71</v>
       </c>
       <c r="D555" s="10" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="E555" s="13">
         <v>5</v>
@@ -22522,7 +22519,7 @@
     </row>
     <row r="556" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A556" s="4" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B556" s="5">
         <v>45077</v>
@@ -22531,7 +22528,7 @@
         <v>71</v>
       </c>
       <c r="D556" s="6" t="s">
-        <v>855</v>
+        <v>848</v>
       </c>
       <c r="E556" s="12">
         <v>5</v>
@@ -22557,7 +22554,7 @@
     </row>
     <row r="557" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A557" s="8" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B557" s="9">
         <v>45077</v>
@@ -22566,7 +22563,7 @@
         <v>71</v>
       </c>
       <c r="D557" s="10" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="E557" s="13">
         <v>5</v>
@@ -22592,7 +22589,7 @@
     </row>
     <row r="558" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A558" s="4" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B558" s="5">
         <v>45077</v>
@@ -22601,7 +22598,7 @@
         <v>71</v>
       </c>
       <c r="D558" s="6" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="E558" s="12">
         <v>5</v>
@@ -22627,7 +22624,7 @@
     </row>
     <row r="559" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A559" s="8" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="B559" s="9">
         <v>45077</v>
@@ -22636,7 +22633,7 @@
         <v>81</v>
       </c>
       <c r="D559" s="10" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="E559" s="13">
         <v>5</v>
@@ -22662,7 +22659,7 @@
     </row>
     <row r="560" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A560" s="4" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
       <c r="B560" s="5">
         <v>45077</v>
@@ -22671,7 +22668,7 @@
         <v>81</v>
       </c>
       <c r="D560" s="6" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="E560" s="12">
         <v>5</v>
@@ -22697,7 +22694,7 @@
     </row>
     <row r="561" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A561" s="8" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B561" s="9">
         <v>45077</v>
@@ -22732,7 +22729,7 @@
     </row>
     <row r="562" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A562" s="4" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
       <c r="B562" s="5">
         <v>45077</v>
@@ -22741,7 +22738,7 @@
         <v>81</v>
       </c>
       <c r="D562" s="6" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="E562" s="12">
         <v>5</v>
@@ -22767,7 +22764,7 @@
     </row>
     <row r="563" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A563" s="8" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B563" s="9">
         <v>45077</v>
@@ -22802,7 +22799,7 @@
     </row>
     <row r="564" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A564" s="4" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B564" s="5">
         <v>45077</v>
@@ -22837,7 +22834,7 @@
     </row>
     <row r="565" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A565" s="8" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B565" s="9">
         <v>45077</v>
@@ -22872,7 +22869,7 @@
     </row>
     <row r="566" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A566" s="4" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B566" s="5">
         <v>45077</v>
@@ -22881,7 +22878,7 @@
         <v>11</v>
       </c>
       <c r="D566" s="6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E566" s="12">
         <v>5</v>
@@ -22907,7 +22904,7 @@
     </row>
     <row r="567" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A567" s="8" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B567" s="9">
         <v>45077</v>
@@ -22942,7 +22939,7 @@
     </row>
     <row r="568" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A568" s="4" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B568" s="5">
         <v>45077</v>
@@ -22977,7 +22974,7 @@
     </row>
     <row r="569" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A569" s="8" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="B569" s="9">
         <v>45077</v>
@@ -22986,7 +22983,7 @@
         <v>11</v>
       </c>
       <c r="D569" s="10" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="E569" s="13">
         <v>5</v>
@@ -23012,7 +23009,7 @@
     </row>
     <row r="570" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A570" s="4" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B570" s="5">
         <v>45077</v>
@@ -23047,7 +23044,7 @@
     </row>
     <row r="571" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A571" s="8" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B571" s="9">
         <v>45077</v>
@@ -23082,7 +23079,7 @@
     </row>
     <row r="572" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A572" s="4" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="B572" s="5">
         <v>45077</v>
@@ -23091,7 +23088,7 @@
         <v>11</v>
       </c>
       <c r="D572" s="6" t="s">
-        <v>630</v>
+        <v>866</v>
       </c>
       <c r="E572" s="12">
         <v>5</v>
@@ -23117,7 +23114,7 @@
     </row>
     <row r="573" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A573" s="8" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="B573" s="9">
         <v>45077</v>
@@ -23126,7 +23123,7 @@
         <v>11</v>
       </c>
       <c r="D573" s="10" t="s">
-        <v>639</v>
+        <v>868</v>
       </c>
       <c r="E573" s="13">
         <v>5</v>
@@ -23152,7 +23149,7 @@
     </row>
     <row r="574" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A574" s="4" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="B574" s="5">
         <v>45077</v>
@@ -23161,7 +23158,7 @@
         <v>11</v>
       </c>
       <c r="D574" s="6" t="s">
-        <v>633</v>
+        <v>867</v>
       </c>
       <c r="E574" s="12">
         <v>5</v>
@@ -23187,7 +23184,7 @@
     </row>
     <row r="575" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A575" s="8" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="B575" s="9">
         <v>45077</v>
@@ -23196,7 +23193,7 @@
         <v>71</v>
       </c>
       <c r="D575" s="10" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="E575" s="13">
         <v>5</v>
@@ -23222,7 +23219,7 @@
     </row>
     <row r="576" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A576" s="4" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="B576" s="5">
         <v>45077</v>
@@ -23231,7 +23228,7 @@
         <v>71</v>
       </c>
       <c r="D576" s="6" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="E576" s="12">
         <v>5</v>
@@ -23257,7 +23254,7 @@
     </row>
     <row r="577" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A577" s="8" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="B577" s="9">
         <v>45077</v>
@@ -23266,7 +23263,7 @@
         <v>71</v>
       </c>
       <c r="D577" s="10" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="E577" s="13">
         <v>5</v>
@@ -23292,7 +23289,7 @@
     </row>
     <row r="578" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A578" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B578" s="5">
         <v>45077</v>
@@ -23301,7 +23298,7 @@
         <v>71</v>
       </c>
       <c r="D578" s="6" t="s">
-        <v>832</v>
+        <v>825</v>
       </c>
       <c r="E578" s="12">
         <v>5</v>
@@ -23327,7 +23324,7 @@
     </row>
     <row r="579" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A579" s="8" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B579" s="9">
         <v>45077</v>
@@ -23362,7 +23359,7 @@
     </row>
     <row r="580" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A580" s="4" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="B580" s="5">
         <v>45077</v>
@@ -23371,7 +23368,7 @@
         <v>71</v>
       </c>
       <c r="D580" s="6" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="E580" s="12">
         <v>5</v>
@@ -23397,7 +23394,7 @@
     </row>
     <row r="581" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A581" s="8" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B581" s="9">
         <v>45077</v>
@@ -23406,7 +23403,7 @@
         <v>71</v>
       </c>
       <c r="D581" s="10" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E581" s="13">
         <v>5</v>
@@ -23432,7 +23429,7 @@
     </row>
     <row r="582" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A582" s="4" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="B582" s="5">
         <v>45077</v>
@@ -23441,7 +23438,7 @@
         <v>168</v>
       </c>
       <c r="D582" s="6" t="s">
-        <v>678</v>
+        <v>869</v>
       </c>
       <c r="E582" s="12">
         <v>5</v>
@@ -23467,7 +23464,7 @@
     </row>
     <row r="583" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A583" s="8" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="B583" s="9">
         <v>45077</v>
@@ -23476,7 +23473,7 @@
         <v>168</v>
       </c>
       <c r="D583" s="10" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="E583" s="13">
         <v>5</v>
@@ -23502,7 +23499,7 @@
     </row>
     <row r="584" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A584" s="4" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="B584" s="5">
         <v>45077</v>
@@ -23511,7 +23508,7 @@
         <v>168</v>
       </c>
       <c r="D584" s="6" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="E584" s="12">
         <v>5</v>
@@ -23537,7 +23534,7 @@
     </row>
     <row r="585" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A585" s="8" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B585" s="9">
         <v>45077</v>
@@ -23546,7 +23543,7 @@
         <v>168</v>
       </c>
       <c r="D585" s="10" t="s">
-        <v>867</v>
+        <v>860</v>
       </c>
       <c r="E585" s="13">
         <v>5</v>
@@ -23572,7 +23569,7 @@
     </row>
     <row r="586" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A586" s="4" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B586" s="5">
         <v>45077</v>
@@ -23581,7 +23578,7 @@
         <v>168</v>
       </c>
       <c r="D586" s="6" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E586" s="12">
         <v>5</v>
@@ -23607,7 +23604,7 @@
     </row>
     <row r="587" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A587" s="8" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B587" s="9">
         <v>45077</v>
@@ -23642,7 +23639,7 @@
     </row>
     <row r="588" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A588" s="4" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B588" s="5">
         <v>45077</v>
@@ -23651,7 +23648,7 @@
         <v>168</v>
       </c>
       <c r="D588" s="6" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E588" s="12">
         <v>5</v>
@@ -23677,7 +23674,7 @@
     </row>
     <row r="589" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A589" s="8" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B589" s="9">
         <v>45077</v>
@@ -23686,7 +23683,7 @@
         <v>168</v>
       </c>
       <c r="D589" s="10" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E589" s="13">
         <v>5</v>
@@ -23712,7 +23709,7 @@
     </row>
     <row r="590" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A590" s="4" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B590" s="5">
         <v>45077</v>
@@ -23747,7 +23744,7 @@
     </row>
     <row r="591" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A591" s="8" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B591" s="9">
         <v>45077</v>
@@ -23782,7 +23779,7 @@
     </row>
     <row r="592" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A592" s="4" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B592" s="5">
         <v>45077</v>
@@ -23791,7 +23788,7 @@
         <v>11</v>
       </c>
       <c r="D592" s="6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E592" s="12">
         <v>5</v>
@@ -23817,7 +23814,7 @@
     </row>
     <row r="593" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A593" s="8" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="B593" s="9">
         <v>45077</v>
@@ -23826,7 +23823,7 @@
         <v>11</v>
       </c>
       <c r="D593" s="10" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E593" s="13">
         <v>5</v>
@@ -23852,7 +23849,7 @@
     </row>
     <row r="594" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A594" s="4" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B594" s="5">
         <v>45077</v>
@@ -23887,7 +23884,7 @@
     </row>
     <row r="595" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A595" s="8" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B595" s="9">
         <v>45077</v>
@@ -23896,7 +23893,7 @@
         <v>11</v>
       </c>
       <c r="D595" s="10" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E595" s="13">
         <v>5</v>
@@ -23922,7 +23919,7 @@
     </row>
     <row r="596" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A596" s="4" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B596" s="5">
         <v>45077</v>
@@ -23957,7 +23954,7 @@
     </row>
     <row r="597" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A597" s="8" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B597" s="9">
         <v>45077</v>
@@ -23966,7 +23963,7 @@
         <v>11</v>
       </c>
       <c r="D597" s="10" t="s">
-        <v>830</v>
+        <v>823</v>
       </c>
       <c r="E597" s="13">
         <v>5</v>
@@ -23992,7 +23989,7 @@
     </row>
     <row r="598" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A598" s="4" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B598" s="5">
         <v>45077</v>
@@ -24001,7 +23998,7 @@
         <v>101</v>
       </c>
       <c r="D598" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E598" s="12">
         <v>5</v>
@@ -24027,7 +24024,7 @@
     </row>
     <row r="599" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A599" s="8" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B599" s="9">
         <v>45077</v>
@@ -24036,7 +24033,7 @@
         <v>171</v>
       </c>
       <c r="D599" s="10" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E599" s="13">
         <v>5</v>
@@ -24062,7 +24059,7 @@
     </row>
     <row r="600" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A600" s="4" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B600" s="5">
         <v>45077</v>
@@ -24071,7 +24068,7 @@
         <v>171</v>
       </c>
       <c r="D600" s="6" t="s">
-        <v>849</v>
+        <v>842</v>
       </c>
       <c r="E600" s="12">
         <v>5</v>
@@ -24097,7 +24094,7 @@
     </row>
     <row r="601" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A601" s="8" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B601" s="9">
         <v>45077</v>
@@ -24106,7 +24103,7 @@
         <v>101</v>
       </c>
       <c r="D601" s="10" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E601" s="13">
         <v>5</v>
@@ -24132,7 +24129,7 @@
     </row>
     <row r="602" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A602" s="4" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B602" s="5">
         <v>45077</v>
@@ -24167,16 +24164,16 @@
     </row>
     <row r="603" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A603" s="8" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B603" s="9">
         <v>45077</v>
       </c>
       <c r="C603" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D603" s="10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E603" s="13">
         <v>5</v>
@@ -24202,7 +24199,7 @@
     </row>
     <row r="604" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A604" s="4" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="B604" s="5">
         <v>45077</v>
@@ -24211,7 +24208,7 @@
         <v>81</v>
       </c>
       <c r="D604" s="6" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="E604" s="12">
         <v>5</v>
@@ -24237,7 +24234,7 @@
     </row>
     <row r="605" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A605" s="8" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B605" s="9">
         <v>45077</v>
@@ -24272,16 +24269,16 @@
     </row>
     <row r="606" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A606" s="4" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B606" s="5">
         <v>45077</v>
       </c>
       <c r="C606" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D606" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E606" s="12">
         <v>5</v>
